--- a/SpriteSchematicLibrary.xlsx
+++ b/SpriteSchematicLibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676698A-4347-4E33-B05D-73FAF39082F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FF175-9B28-4C7C-B6FC-6DE713C33959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image Data" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jonat</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{91919A9B-CD97-4CC1-A11E-2F029F53D760}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jonat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Animation Cycle Speed. The image will change every &lt;sp&gt; seconds. Must be a float.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{286555CD-436F-435B-B0C1-A6598D2F6B84}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Each X/Y Point (in pixels) represents the upper left corner of the of the image that will be displayed.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="myXML" type="4" refreshedVersion="0" background="1">
@@ -39,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="187">
   <si>
     <t>Monster</t>
   </si>
@@ -192,13 +241,421 @@
   </si>
   <si>
     <t>5.) Save and re-zip the 4 files back together.</t>
+  </si>
+  <si>
+    <t>Once you have created and filled your tables, export this file as an ".xml" file to "spriteSchematics.xml". The game will read the data from the xml.</t>
+  </si>
+  <si>
+    <t>Omni-Beast</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>5151</t>
+  </si>
+  <si>
+    <t>5454</t>
+  </si>
+  <si>
+    <t>5353</t>
+  </si>
+  <si>
+    <t>5252</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>5858</t>
+  </si>
+  <si>
+    <t>5959</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>9090</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>6060</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>4040</t>
+  </si>
+  <si>
+    <t>7070</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>5554</t>
+  </si>
+  <si>
+    <t>6663</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>5656</t>
+  </si>
+  <si>
+    <t>6565</t>
+  </si>
+  <si>
+    <t>6363</t>
+  </si>
+  <si>
+    <t>6262</t>
+  </si>
+  <si>
+    <t>6161</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>0.12f</t>
+  </si>
+  <si>
+    <t>0.34f</t>
+  </si>
+  <si>
+    <t>0.45f</t>
+  </si>
+  <si>
+    <t>0.56f</t>
+  </si>
+  <si>
+    <t>0.67f</t>
+  </si>
+  <si>
+    <t>0.78f</t>
+  </si>
+  <si>
+    <t>0.89f</t>
+  </si>
+  <si>
+    <t>0.11f</t>
+  </si>
+  <si>
+    <t>0.22f</t>
+  </si>
+  <si>
+    <t>0.33f</t>
+  </si>
+  <si>
+    <t>0.41f</t>
+  </si>
+  <si>
+    <t>0.51f</t>
+  </si>
+  <si>
+    <t>0.88f</t>
+  </si>
+  <si>
+    <t>0.55f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +729,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -944,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,78 +1683,8 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1293,6 +1693,144 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2545,6 +3083,1266 @@
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/animationSpeed" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
+  <singleXmlCell id="97" xr6:uid="{C4DFC8AC-81AE-465B-AE32-92C8FB904011}" r="F7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F414F1C3-4177-4FA6-BE46-560866C6655F}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="98" xr6:uid="{297AD5E8-75EA-4C7B-969F-96E48BB3251D}" r="G7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{72D22284-79A8-4E48-80C5-D05880011B22}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="99" xr6:uid="{6C1082A0-315F-4329-AE36-F65B81AA8F02}" r="H7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9F56FDF6-D851-4B8B-823A-1C5AD0D21F1F}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="100" xr6:uid="{C2D1B5A9-A7A9-448A-8B38-666BADE337E8}" r="I7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2A025349-CF6F-4DE3-973D-AB9990404DF7}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="101" xr6:uid="{D710B7FE-E8FC-482B-A1F5-3D06FFE536F4}" r="J7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F87423D9-07DB-47B3-8697-B10A10EEB310}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="102" xr6:uid="{8446BBA6-670C-4333-AA3C-0F92BDE943BA}" r="K7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{027C1812-D00D-41CA-9864-270EB5310D95}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="103" xr6:uid="{FF5EC7A1-A555-4CD6-983B-2F04714D5223}" r="L7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2AB6710E-D2D7-469A-82A0-779E625D9643}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="104" xr6:uid="{190A8908-6A18-48AA-B031-831E62C4EA8C}" r="M7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E0E7E47F-DDCE-4B6E-A307-8C1BD2F707E1}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="105" xr6:uid="{5136E1A7-E204-4F6F-BBBC-F8DFB6224827}" r="N7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5335650A-C877-4DF9-BAAF-70D13B5E5C9B}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="106" xr6:uid="{3145DA63-DC95-4D72-801B-3AB9F5A855E1}" r="O7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E458A6EF-6A46-44EB-A3EA-B874AFB31950}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="107" xr6:uid="{36B381E7-681E-4F51-851F-2FD442B57671}" r="F8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1F9E7024-BEE9-4F95-A282-FDAF771F47DF}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="108" xr6:uid="{053F776A-D6E2-4A10-9E15-E1A0F519A1DB}" r="G8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F7A9DB27-FA07-4CCF-97B8-69C4AE3E3E0F}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="109" xr6:uid="{B47D7362-7D00-4D36-970C-D8A824AA270E}" r="H8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2A97519D-184E-4E1A-BEA1-AB1EF8828795}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="110" xr6:uid="{ECA3AB89-3340-4EDC-B277-C7D88BBBE26E}" r="I8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1D9EDB01-3488-46D7-89E0-27C91C43BF3C}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="111" xr6:uid="{600AEDFD-1175-4B4B-8738-3F4FE6AB9EE3}" r="J8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{890BCFB8-53E6-4A10-9F0A-382FE6103471}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="112" xr6:uid="{8A77964D-E0B9-4CDD-89F3-47A0E7D0430E}" r="K8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3ED4500E-E362-471F-B53F-ED9E9587F0F3}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="113" xr6:uid="{48E081EA-E1D3-4BD8-B078-4C7C98283BA1}" r="L8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0BFDABDD-F0E8-484E-9DF0-B247A4801986}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="114" xr6:uid="{25E1E49F-AE8C-4693-A4C0-AED230DD37CE}" r="M8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{49735CF6-D5DC-4189-9E14-3E84EA96EE61}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="115" xr6:uid="{7A352AE6-48E0-4168-929F-FBB480B6676E}" r="N8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DC289358-D9C8-4146-9686-7637F37A8E0F}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="116" xr6:uid="{BD56E6EB-5DA1-445D-9182-BD4D290CAC13}" r="O8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{239BC4B8-1706-48F8-9ED3-7C85807E2E27}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="117" xr6:uid="{03487F48-DFFD-4320-9260-6C27BE37E6DE}" r="D7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EA92056A-88EB-4171-819C-DE898261CF4B}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/defend/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="118" xr6:uid="{4ADE4B7E-418E-4C26-B067-A885AD3DF224}" r="D9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{70A2C675-E008-4275-BC4B-1367B0C1A21F}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="119" xr6:uid="{66313EB7-1F99-4BC8-94CE-144F74B37948}" r="F9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E52E782D-E4D0-4AFC-90D5-08DE9B2A4786}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="120" xr6:uid="{EFB36F9B-3087-465F-80FD-3708C91B3FF6}" r="G9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2A318EE3-3C29-4D81-8E9F-33FD10AA4EFA}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="121" xr6:uid="{FFA0D983-798C-4BEA-8756-60DF3E87BED3}" r="H9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{461C6BC1-1FAA-4475-B74F-EA646A9D3A48}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="122" xr6:uid="{2310EC05-E3FA-4F56-9999-57E4334735CB}" r="I9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C90107AB-26D7-4B2A-B920-177006EDC665}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="123" xr6:uid="{79DC0DFB-97DD-4F2F-9CA8-7FAE98F4C5F8}" r="J9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{149ADB56-5AC5-46FA-A057-F3420094240E}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="124" xr6:uid="{984EB27B-E5EA-457B-AD34-2E802245A9C6}" r="K9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6120F3DA-A57F-412A-9DF7-10C41F538DE7}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="125" xr6:uid="{D6C8166E-D4A2-446F-8962-8446B51DE27D}" r="L9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7705FBF7-C068-48D3-926E-51F77259B789}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="126" xr6:uid="{829F62DD-D223-4553-8EC4-BEA8BFB4222D}" r="M9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3B67543F-A1D4-4C67-B256-9F55512FC123}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="127" xr6:uid="{846E1604-45CC-4095-9087-6AB3A725C341}" r="N9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{43DF2AC2-57C5-482A-A1B3-594299C1D93A}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="128" xr6:uid="{92B0643D-DCE0-49BE-A628-6B790F666B39}" r="O9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8FA0B109-CF5B-45A3-84A2-17E0C34A8C53}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="129" xr6:uid="{CD7F871F-85F8-4E9E-9EAE-36C502749A6C}" r="F10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FC4E4F18-38A8-40DC-9033-462C5289C4C9}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="130" xr6:uid="{D271F1E2-B961-4573-92DD-3967F7C5DAE1}" r="G10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D1A75532-488E-4B8F-9F93-61EAFDA3A215}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="131" xr6:uid="{3751624E-E83E-46E4-AABB-AF0C351DD401}" r="H10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{62DA2AEA-9514-4917-B74A-8D4A2385EEC5}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="132" xr6:uid="{7709E638-EED7-4D16-A1C4-0053C253ED05}" r="I10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{57388104-DA94-481F-A9BC-150168B8FD0E}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="133" xr6:uid="{45FDE500-B8C5-4C11-A241-815396BA8ECC}" r="J10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3B582021-AA3E-4046-ACED-EA383FFBF83B}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="134" xr6:uid="{A9F2AD22-EC9C-446B-A777-71E9D6AD60A3}" r="K10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C7BD0596-EB61-4F72-9C94-F6DC23F6A9D5}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="135" xr6:uid="{9A8494BC-EC65-4873-9F01-E370AEDFC420}" r="L10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4E8F7365-B513-4FDA-B4D1-E9370C0B4815}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="136" xr6:uid="{B0025F7D-089D-4F56-95E9-818F49438D38}" r="M10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B304799F-B62B-4AF6-BBCE-FFA769ECCD67}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="137" xr6:uid="{5564170C-C252-4922-BEC7-143A6813B339}" r="N10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7CEE0A67-E2FD-4B01-BADC-B73B88AC6735}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="138" xr6:uid="{B6F229FA-8242-4F96-AE4C-E0C2ABA7BDB3}" r="O10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F58569A3-8005-400F-9B9B-A09CE8443023}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/damage/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="139" xr6:uid="{535470ED-7222-47DB-AF44-FC431AC61A53}" r="D11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{901B07C3-732F-4D1D-9E85-3F69626B80F1}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="140" xr6:uid="{AD46DBEF-4B4D-4C8B-AA0C-7089612D147F}" r="F11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E9C3DC37-313F-4313-8471-3130199E852D}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="141" xr6:uid="{69899F60-E091-4199-92E2-EBDA527A47E6}" r="G11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DDCF6B64-8D7D-418F-894E-0D0B20B9DCA9}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="142" xr6:uid="{41D6F0F0-2994-4847-9096-75069FBEB485}" r="H11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0592D1BE-6A8D-43D5-9262-B21282A6BB08}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="143" xr6:uid="{8DCA3B07-1A33-4355-A903-A0D57402FBC7}" r="I11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{179B7B12-8F17-4A0B-B74A-DD57E43E58C3}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="144" xr6:uid="{24A025D0-6DDE-4F4B-9885-FDE87B0AFFA0}" r="J11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{105D0211-8FD8-4234-8600-B535F07C1077}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="145" xr6:uid="{DE647E46-789A-45AE-B37E-85CEF8780817}" r="K11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3EE2C213-627E-4CAA-8C68-746355AB93F1}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="146" xr6:uid="{FABA527B-2973-4854-94EF-15D8BB42C21D}" r="L11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3DB3B3A8-326B-4E5B-8D6C-957A7DAC1FD7}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="147" xr6:uid="{3650B553-018A-4348-8EDF-C0439D9229B4}" r="M11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F2D3C79C-2286-43F3-A8C2-A3FB94BD2FF9}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="148" xr6:uid="{BFF55CA4-82D6-4727-84B0-5B1636BC21B3}" r="N11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{71DBD0FB-F71C-4AE5-AD7B-A7B0C06734B9}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="149" xr6:uid="{983761E9-04F6-4CC4-B82D-681D5ACD6898}" r="O11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FF4F3749-558A-43DF-8944-A2C055A728E0}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="150" xr6:uid="{2BB836F3-BC83-47C9-BB30-0D6FB195C9B1}" r="F12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EBB5C8E0-BB1D-4F22-B12C-9C9EAD77FC83}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="151" xr6:uid="{660B61DE-9533-4283-A506-28C92A21ECC0}" r="G12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AA92AF4A-D6B1-4579-BF28-8054FB382E89}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="152" xr6:uid="{F75BBF99-2C38-4860-8C3F-4EDEB6EBC0BB}" r="H12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{295FDC88-A507-4AFA-844F-754B3A7AFB3E}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="153" xr6:uid="{E3C07BB5-1806-47D7-A775-BC79D17A00DE}" r="I12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EF86EB94-5B71-4DD3-BD63-9C39BFB347E8}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="154" xr6:uid="{B62A2B9F-F052-487F-AB3A-94F3428E5810}" r="J12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{33FF6C87-2A5E-4204-9E31-9540909CA98B}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="155" xr6:uid="{AAB6CD1C-E075-47F4-AE28-3FB6887C24F4}" r="K12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{71305BAD-D292-4265-B9F7-A7C05EF82DE5}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="156" xr6:uid="{415299F5-5B74-48BB-A456-DF8EB3C33856}" r="L12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{699C6CE5-14CD-45D2-A3D7-5753D7038E52}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="157" xr6:uid="{D6FF2047-B856-42C8-9917-B2C55B251B9A}" r="M12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9156132B-F8D0-473A-B2C3-5AD8121D51BA}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="158" xr6:uid="{83280502-49B0-4C6D-A946-B945702BC440}" r="N12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0A0E0291-2CEB-44AD-B8FE-5F0A47813417}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="159" xr6:uid="{04C4A1F4-D60F-4AAB-9DD0-C332AB299EA2}" r="O12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{24C4E399-4520-4076-ACCC-B17783AE9F52}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/dragon/death/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="160" xr6:uid="{F4D01C77-CD56-4987-BDE6-B59D4109A437}" r="D15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AAC4FBAA-EE55-48C5-9807-03B286C25F49}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="161" xr6:uid="{08D39A6F-8D71-41F1-8339-84ED666A0B62}" r="F15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{014C533F-DB0C-41D9-9E81-E4C3DE00BFCC}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="162" xr6:uid="{D6E217CB-8235-4A13-B1D8-4615A05E0BB8}" r="G15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{295CA5E2-F10E-4DA2-96B7-2F7CCB47F39E}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="163" xr6:uid="{4AB588B2-8E34-4AD3-939A-E8A4A47D0512}" r="H15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{ADAB0250-C521-425A-89FD-B5B1AE083285}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="164" xr6:uid="{FF40B1AF-87E8-4E7B-86E7-F3B246C3836A}" r="I15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E76DB7F7-F11D-4A5B-A1CD-B745B54E4F90}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="165" xr6:uid="{AEAA9B4E-589E-4F32-B2C3-4A1CF8CCB1DB}" r="J15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A81D0F6A-F094-4E73-8F04-05F228FD196B}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="166" xr6:uid="{AFED7082-0070-4127-B30E-3A1F8445CDAF}" r="K15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B87A23F1-34C3-45A2-8C8F-ED36DE58153D}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="167" xr6:uid="{B2604A0D-CD3D-482A-9901-7C904B2F7B1B}" r="L15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{338C633C-5938-44B8-B6A7-03022A81C4A8}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="168" xr6:uid="{A884F9B0-B233-4E02-97E0-76877C373F5D}" r="M15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4E97E6FA-DFD1-4DDB-8D85-4B1C5C44787A}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="169" xr6:uid="{A213D2D3-463C-4557-8940-A6E49FAECAD7}" r="N15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C67C08D8-7CDD-44BE-9D62-63A614AD044D}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="170" xr6:uid="{08722C5D-75B4-4E35-865F-A8AC1A1D71F2}" r="O15" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EF3C5970-F227-4988-A395-4303EC409F4A}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="171" xr6:uid="{446B78BE-9C7B-4A48-9C0E-D88E515A9597}" r="F16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{95CB6D83-074F-4392-9197-44E50B2358DD}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="172" xr6:uid="{278340EE-92B4-46D2-9C19-A4E39CC58BC2}" r="G16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{58C06BF4-CD82-4F1B-9349-BD592945763F}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="173" xr6:uid="{4599DB0D-35FD-413B-A55C-5893F52CBB36}" r="H16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{80C26F04-4840-4FCB-9B78-BA1086717FEE}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="174" xr6:uid="{6BEBF50F-7D68-4779-A1C4-73F3793C6562}" r="I16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{345B04AB-8A61-4D34-8DA3-BF80E099FC30}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="175" xr6:uid="{23B04B38-4293-4185-BEE6-D973846EB3CC}" r="J16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D478F217-E2F1-4800-9D7D-E63CB1B83AFD}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="176" xr6:uid="{26B2A56F-BA1C-4F81-944B-B7D772AA3DD8}" r="K16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{83A765F5-D4B7-4A87-A40A-AA990E6FC468}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="177" xr6:uid="{D1D1FAA7-0380-4464-A880-1467FF5868D2}" r="L16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1D08B63E-3C30-46E8-A645-249C501C6D71}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="178" xr6:uid="{8F498E9B-83FC-4908-ABF4-F94FC456CA0E}" r="M16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6629C5B2-3AC5-416B-9F87-5B0B26F801EC}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="179" xr6:uid="{B596D02C-C591-4E15-8858-5AF0F182B063}" r="N16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3BA2563F-B582-4362-90FF-92B0561CC780}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="180" xr6:uid="{366516A6-7B07-4A48-A594-5D3DEC52BFF3}" r="O16" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C137507A-76E4-434E-A5B3-F421100C2D4F}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/attack/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="181" xr6:uid="{FB776B36-7F34-4F7A-8081-C65E87042445}" r="D17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{74C6350B-B8D4-4B9A-9DAA-CF9CEADB2356}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="182" xr6:uid="{029AAC68-5943-4BA9-BEB9-61D47C5E5944}" r="F17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CEA17025-F071-4F0E-8929-4FF40F173257}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="183" xr6:uid="{F2B514E9-56FC-493C-87BA-E74441BA20C8}" r="G17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3659612F-09AB-445B-8F56-5F305E63F7C8}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="184" xr6:uid="{9978CA3D-0154-41CB-AE95-E5549F1C6897}" r="H17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{76C44116-0890-41DF-8CE3-1C76C2680577}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="185" xr6:uid="{EF4D3A88-7AAB-4C9A-81A7-BDEED05DA1AA}" r="I17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{73489A58-C93F-40A0-A0DC-BE04776DF9C8}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="186" xr6:uid="{C90C130B-665F-41BA-AF24-BB03C45EA417}" r="J17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F44B2B5A-4B19-44E4-BB7E-2111C7549D6D}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="187" xr6:uid="{5A651E57-02C0-4B5E-AE6C-E8C8F5EC821B}" r="K17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{22631189-CA9E-42F5-93F9-8CFA5863DBB2}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="188" xr6:uid="{CDF042E4-0245-4DC3-9F93-0AA73FAD404C}" r="L17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{42C75EE7-1A50-4249-A01B-5BE9AEFAF621}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="189" xr6:uid="{29CD6C22-8829-462B-A77F-A84264CE7BDA}" r="M17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8D003B90-4774-4E39-98C2-0AE3E04220C8}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="190" xr6:uid="{65090182-9684-4AB4-8410-36853229E7CF}" r="N17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7B540C95-EC7E-4D9C-9348-C496B4F65755}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="191" xr6:uid="{3AF50E16-EB92-4EB0-83D4-3082EB0D7237}" r="O17" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F21E33E1-0ABF-4054-B0D0-33C70689B2D5}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="192" xr6:uid="{47908AE3-B452-4660-B97F-5F5413ABCB57}" r="F18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{42FC4856-CB71-4E5D-BD06-EAC00FFBAA8C}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="193" xr6:uid="{5CEDB844-D51F-4EFE-851B-7CBFAE6F018A}" r="G18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9BBAB36D-5999-405C-968A-5600EBF713B4}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="194" xr6:uid="{6AD0C7D7-63CC-4599-A1B3-4874CC9ADD7C}" r="H18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6B076D8E-BE4A-4564-9437-5BB989CB3134}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="195" xr6:uid="{B89D3825-98B2-49D5-8A05-51F112268435}" r="I18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{58A67394-F77D-40A7-89E7-44488D90BF41}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="196" xr6:uid="{0D3C0288-2B10-4EE8-9355-D666CF9BA758}" r="J18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{969A832E-E5E4-48EC-A0E5-25859B9A33EB}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="197" xr6:uid="{8696B134-1B83-4986-805D-1E21AF96B59C}" r="K18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0463D399-6456-4ACC-AAE8-EB6B3067880C}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="198" xr6:uid="{0EDFE31A-7697-4BAE-92F1-5AA3B2FBD40D}" r="L18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{888C1771-637C-45E5-9D4E-A782C8488178}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="199" xr6:uid="{2B09C6E5-C85C-4F23-B710-B6E45A4822E3}" r="M18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{17AA8F7E-0DA1-45AC-9E4D-3ED670841740}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="200" xr6:uid="{01B36F1F-7ECC-4DD7-A79F-3768E99BF337}" r="N18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D0595BF7-508D-4A7F-9015-E697A6240349}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="201" xr6:uid="{DE8F6023-E59F-4911-8544-8150E77AEDEF}" r="O18" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{069ED9C2-46E4-42CE-ABDE-9907EDF72402}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/defend/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="202" xr6:uid="{E48B7825-CC8C-41F3-97F4-0A4CA47C515C}" r="D19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{68E837A2-C82A-4967-ACA0-5E862527B645}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="203" xr6:uid="{5EC106BA-3E96-4523-9F7E-20E38BCD2E30}" r="F19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{50FE7F90-39A4-49EC-B10A-2974890B2759}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="204" xr6:uid="{51D948B5-0CA7-4BE1-A89E-59988CA54B8E}" r="G19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CD4CBEAA-6891-4567-832E-D7CF8D56192C}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="205" xr6:uid="{B2388D1D-5770-4B0F-B333-84CD69B8837F}" r="H19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B0A97412-D593-4FA1-B791-593BCDACA476}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="206" xr6:uid="{08BB3A79-F3FC-4BCB-B17C-DF436ACA39FE}" r="I19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AA8BF483-18F7-4E38-8D2C-302E999F019D}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="207" xr6:uid="{94A63181-2E98-41E6-981D-D2B89ABA6D74}" r="J19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BD886851-01DA-4E5E-828A-0533A88A001A}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="208" xr6:uid="{532FC0F3-02CB-4D14-9730-E247A4D13BC6}" r="K19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1E86338F-F013-4362-9A65-D75A48B153BE}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="209" xr6:uid="{1C0058A0-1043-46F8-BAD2-43997C01BEA2}" r="L19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8C9B937E-885D-4D4D-84E0-DB9B2D4F2F0D}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="210" xr6:uid="{5D7D63AD-AD49-4250-B4F3-6E0E971A37B4}" r="M19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{57E04D6A-C772-449C-8C81-67459CBC56C4}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="211" xr6:uid="{51A2F422-1AC9-4ECC-BE4E-821FA444206C}" r="N19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7F5D0E21-05DC-4B7D-A4BE-CD1CDE779708}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="212" xr6:uid="{4917F8A1-16B2-4DFB-B32B-DF8A2866293E}" r="O19" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E2F6F841-86E0-402A-93FA-142B30F8EDC6}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="213" xr6:uid="{1B6EAD98-A7D7-4BF2-B066-6E8F90C92A35}" r="F20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E61A187B-983A-47F6-A378-6F92BC821E72}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="214" xr6:uid="{23E546C5-46EA-4C79-9C37-1DCBBE4DDA56}" r="G20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4FFE246F-64FE-454C-897B-48273B8E0D0D}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="215" xr6:uid="{9A4BB085-AAC6-49DB-B7F6-27AFBE04C5A6}" r="H20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E7AF92B0-B510-48ED-BC93-354A15F05557}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="216" xr6:uid="{3275E6F2-4D91-4045-8575-1BFCB0C2F876}" r="I20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6AC93C74-61FB-46CC-8B08-D1FEEAA583E0}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="217" xr6:uid="{107801FE-18D6-4B8F-AB14-BB8B96BBC216}" r="J20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{754645A1-F0DA-4B40-B2EF-7025FE132A8C}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="218" xr6:uid="{C5DD90E8-33CD-4228-94CC-2886F4BA3C9B}" r="K20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{61553C99-7739-4CFB-8DCA-721BF542DF15}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="219" xr6:uid="{6A309469-91BB-4F54-BD2A-87FE0793BAA0}" r="L20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D6690FA8-99B0-4D40-98CF-63EE98C358F2}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="220" xr6:uid="{BB19C93F-7B5E-42EB-A083-EE35244DFB35}" r="M20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F24C02F4-83B3-498F-A9DA-12FF59FC4B28}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="221" xr6:uid="{0FA3EA50-F344-4215-B379-E0A255D835E2}" r="N20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CFE41161-EAEC-4868-8033-3895DAD3E79E}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="222" xr6:uid="{2C192CFA-72B1-4CA1-90CD-982B5B4DB8D5}" r="O20" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FFE78B64-9D54-4DD0-9789-3828E052C3DC}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/damage/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="223" xr6:uid="{78F9065F-D802-4BCE-8090-B8B2B57F5F73}" r="D21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7D7EF23D-F846-438C-AA99-3F6792694978}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="224" xr6:uid="{725D3A7E-B929-43DA-9DA5-67939C1AC0BB}" r="F21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8C322AFE-93B4-4495-910F-C6D3EB4A99A4}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="225" xr6:uid="{C1B978A3-049A-437B-9CFA-87555E4CB12C}" r="G21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5B6DA776-6B07-476B-A90B-3921F8647983}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="226" xr6:uid="{D8B94B4B-C018-41B8-BBB8-B68578C5F6B7}" r="H21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{39BBFA86-18E7-4283-8D14-A85EA76915E3}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="227" xr6:uid="{9C8FBA70-F081-4D04-8508-F20DBD734DD4}" r="I21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3049A3A1-9230-4119-A8E1-3102740CAE66}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="228" xr6:uid="{789CFE83-0203-4EE5-80AB-8F9ED63C9E0A}" r="J21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4CA62BD0-57E7-440C-AAA1-59FE9B5FF0A5}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="229" xr6:uid="{20175376-A259-4B5C-9F4A-C3BF91D3585B}" r="K21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5C82CED0-49CE-4590-AEE1-25D9CB8C19FB}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="230" xr6:uid="{FC98473A-1272-4DE4-ABB2-E4731B674F80}" r="L21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{43B55DC4-0464-46F9-9D14-D18A86AE85A2}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="231" xr6:uid="{86BA5FB3-CAF6-4D1B-8091-584E42C3AF65}" r="M21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BA57D41F-D2D9-42B0-8F1B-5166D46854CE}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="232" xr6:uid="{9DA53AAC-263A-4485-9886-8243848E0EB0}" r="N21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C99DD319-60C1-4D3A-B775-37581E7397CD}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="233" xr6:uid="{7BE3321B-DCE8-4A80-8D3E-B17426F08D28}" r="O21" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8E0A33FD-EA2D-4546-B57A-38C9663FA109}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="234" xr6:uid="{8F879B68-B2BB-415B-8DCD-AFD1733D3166}" r="F22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DB15C4FC-4083-4FC2-8D40-17E6A83B6420}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="235" xr6:uid="{6FCBDA82-D58B-4973-8D77-8B2962A91163}" r="G22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{88A28C83-BCAA-4A36-8057-15E6554AB8D5}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="236" xr6:uid="{89DB515B-3457-4C5A-AA75-EE3CAB8762A5}" r="H22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{57BC6249-1B90-4B77-B529-AE57B2313BA6}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="237" xr6:uid="{3DD8826D-18BD-4E43-BEA0-108185EF0E8B}" r="I22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{67E202D2-3D77-4CE7-8B7C-9F4159D00316}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="238" xr6:uid="{A5A0BF14-A023-4531-A783-D8D0446811B4}" r="J22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4CE6D9DD-08D1-42B8-BFAE-E07A75135073}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="239" xr6:uid="{8986281B-3DB7-4849-95A5-84AEBBFC1C4F}" r="K22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D50362C3-27FF-43C9-ABC7-DA7AF502DF39}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="240" xr6:uid="{09ED77CC-D030-4800-A435-7D91699DE738}" r="L22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5ACECB43-AED4-48C5-BED5-40383BA82A51}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="241" xr6:uid="{968BC8BF-DEB5-4E2F-B493-8928BDECA68D}" r="M22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BCB7DD20-9102-4AF5-A3DB-5D4AD0588D36}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="242" xr6:uid="{CF28D732-5437-46CC-8197-68F7C320675A}" r="N22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{107CF970-31D8-494C-B465-EBCB6B735464}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="243" xr6:uid="{ABF18830-AB9F-424C-9204-E0D8AA7C57D6}" r="O22" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3E5B3311-031A-46C4-AF90-53E2B7989960}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="244" xr6:uid="{F684FA75-77EC-417E-BD5B-E67B03E4902D}" r="D23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{18B34BCD-9704-4EA1-A101-19B093447475}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="245" xr6:uid="{FD5072C6-9C06-4073-8E55-4F69C7D5A396}" r="F23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6DCF8794-7519-428C-932C-A845DAFDC6D6}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="246" xr6:uid="{60BAD6E6-F413-44ED-B0BD-82E58DB1FD7C}" r="G23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C7779586-C62E-4CC7-B7DE-5502DD0ECFE6}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="247" xr6:uid="{F0F44E9E-CA34-4827-A635-C23E6FB9F890}" r="H23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AC015C74-B42D-40EF-A377-C8B8A7478847}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="248" xr6:uid="{27A90034-FFAF-4F06-87B6-CEE24302BEC2}" r="I23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{85413C31-6974-4A97-B84A-BFFA3D563444}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="249" xr6:uid="{9E50D2BF-3743-427F-90C3-D94636B47629}" r="J23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C2C378FD-CF27-4F03-B388-DE17A9FB4D1A}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="250" xr6:uid="{82A1F53E-0609-408A-A81E-FE8F0ED471CB}" r="K23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{33AA3C26-6DC3-4EB0-BB7B-DEF63F8E26D1}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="251" xr6:uid="{40B95008-70B9-45A6-9655-C7B192BF710F}" r="L23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0DA5CF41-60D4-4332-A90A-34ACFC4CAEE5}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="252" xr6:uid="{E64504C2-FC97-4D29-AB7A-94A3B9E60203}" r="M23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0362F492-46A9-493F-A17A-0CECD11B4285}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="253" xr6:uid="{8A50555E-B4C0-4721-BFA2-5D0137D5120D}" r="N23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6538582A-5A2B-4E6D-B4C8-0FE325B14080}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="254" xr6:uid="{5D168893-89CE-48F0-B791-52F84AE8B758}" r="O23" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2CB5C427-6DAF-45EC-A6B4-254371195B52}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="255" xr6:uid="{54A8CEEC-89E8-4111-9F46-80BF5006D6E6}" r="F24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A441956C-ED29-4DA0-9B50-370E641E55E2}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="256" xr6:uid="{ACAD9C2C-7494-4BAD-BA1C-AED17FA98569}" r="G24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9ED26B60-C7D9-4CAE-87A3-BA6A5C68E0A9}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="257" xr6:uid="{7739B4D0-17B4-4692-87D5-E16AFD9A9B79}" r="H24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6A38394A-6AD0-4F2C-A71B-9133EF616AD4}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="258" xr6:uid="{D424D973-3C99-4D2D-808D-97CB94DCFF60}" r="I24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2EF07B84-35E6-4EB0-BA55-512D88790A6A}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="259" xr6:uid="{C15B10D8-4666-4A52-B1C4-ECCE3769640A}" r="J24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{58D3A5D9-DE49-460D-8A50-C7BCBDDBB42D}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="260" xr6:uid="{915B82BB-A146-487B-89E5-95B131ED1A84}" r="K24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{03F2D233-F773-4408-AAA6-55906A2B7899}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="261" xr6:uid="{E7645B05-909A-46BB-8D44-AC381F9377CE}" r="L24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3E6BBA20-26AA-4C6C-8E44-6510F1687563}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="262" xr6:uid="{12DB19AF-C399-4B6D-8651-EC5A694D8C85}" r="M24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{63587508-9B23-4BFB-B4FC-7D71786529AC}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="263" xr6:uid="{7AB8BFCB-5E45-45E2-B3EE-6BB399523192}" r="N24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{958B413B-7279-48BA-AE0E-491D4A56ADDA}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="264" xr6:uid="{277E2ED8-4063-4729-86FB-379206ED5A4B}" r="O24" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{44DDDAAD-E701-489E-B50B-F64BD2E28539}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="265" xr6:uid="{813BF6B6-6FE0-4476-AC31-2C8C90777B16}" r="D25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{95F59884-211D-4D6A-9BBB-4CDB5D8C825F}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="266" xr6:uid="{BBC18CD3-D749-42F3-9A2E-D921DCF3C758}" r="F25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AA964FC2-552C-495A-805B-AD0993CE9EBD}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="267" xr6:uid="{3CC2ACDF-73D8-4409-9FC5-3D3768120C27}" r="G25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EDEF3331-5336-43A5-8BC0-8EB83E18F736}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="268" xr6:uid="{852416FB-3885-4DA6-B3D5-AACD44584327}" r="H25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0568ACD4-7DF9-4AD2-AD28-8F77A1706731}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="269" xr6:uid="{E519007A-2EC1-43D0-B265-84178427F42C}" r="I25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{00BDA562-FEC4-4B86-9673-57F6719E2CCB}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="270" xr6:uid="{31BD7FDE-E999-4AA6-8796-7AE2C20DFD68}" r="J25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{347F9B84-0BAE-451E-9D95-D706E6AF958F}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="271" xr6:uid="{F198AEE2-18A1-495D-A382-F683736B1AEA}" r="K25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0F6EB01B-733F-4042-9FB5-E62BB879286A}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="272" xr6:uid="{75628061-72C0-4387-9234-6DD502B7CC79}" r="L25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{14FBEEBA-C06A-4D4D-9E99-0107BD1B1AB0}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="273" xr6:uid="{5F9B2BEE-F1F5-4CF3-9EFF-D9894B216CFA}" r="M25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2D383C6C-93BA-4615-A760-005986331905}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="274" xr6:uid="{DBFD009E-2653-454A-9B18-0AD4E1932B04}" r="N25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{88402B9E-DC9C-4027-B0C1-B332BAAE955E}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="275" xr6:uid="{E45C6379-DA67-432D-BE39-F38DB9E14C58}" r="O25" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A1F633C0-0AE2-41CE-BFF3-5939D74DF534}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="276" xr6:uid="{D7504536-C4C4-4723-AF19-C856C81E17D0}" r="F26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DA5251E7-02BD-4575-8100-0CDEBFBB2EC8}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="277" xr6:uid="{58E7C60B-62ED-44FA-9E95-64B486695817}" r="G26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4AEA0501-8528-4A32-B261-848E974B4990}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="278" xr6:uid="{3A9E3753-57C7-4A7E-8526-50F45EA3D242}" r="H26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FC1321EA-C82D-4615-A7BF-14C115C7CC1B}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="279" xr6:uid="{6E376417-074B-4440-897F-F1A530EC08D7}" r="I26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{ED7BEB9C-8B5E-4A74-BF8B-9F8A02190681}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="280" xr6:uid="{CCB19C19-67FE-4F1F-8C94-47E33A03574D}" r="J26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{41A8ED8C-6AD9-407C-B8ED-B57BBF216893}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="281" xr6:uid="{CAF3A054-AC5D-4241-9506-687560B4687B}" r="K26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{29744A1C-4BC1-422A-ABAA-81B28D265893}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="282" xr6:uid="{DA7292C5-C0D8-4DFB-AEAB-9884D498792C}" r="L26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F9674532-4DA3-4E8C-B72B-7048461822D4}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="283" xr6:uid="{731CD66A-76BF-47E6-B2A4-E2CB8E75B649}" r="M26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D8839EF8-B969-421D-A663-9D39A2AD3975}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="284" xr6:uid="{9AE1306D-05DB-4C48-A9B0-E9E2E5F4341E}" r="N26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{33173B26-2DDE-44D6-BD7E-81E57691FBE5}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="285" xr6:uid="{D531F284-6567-403B-9E63-08CF9F86727D}" r="O26" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7F5E9C31-9535-4435-931D-5BD015F9048E}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="286" xr6:uid="{90BAFEC8-EBE2-4131-9BE7-2B99117258D9}" r="D27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0E3B27EB-EBA3-40B8-9674-EC8BC6CD0820}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="287" xr6:uid="{C0ABA2FF-5CF9-4333-8114-9C2F912D92F2}" r="F27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8928EBDE-3934-4B29-AAAB-2031CE012357}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="288" xr6:uid="{11368E72-4258-4057-98AD-C08AF96428C9}" r="G27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6323000C-E2A9-4170-8BB1-F465F39FB003}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="289" xr6:uid="{5FD78BD4-7A31-4ED6-8D6D-485B1E472595}" r="H27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{3AC990F9-742E-4CF8-80AE-4EE8973465B6}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="290" xr6:uid="{EFCCB20B-73D5-4193-9245-492C17786B4B}" r="I27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C5E87707-CCBE-42F6-9718-B426A7DEBD5F}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="291" xr6:uid="{549ED7FE-4F38-413F-B3C7-ACE406ACC4BC}" r="J27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{37BC0CDD-A1DA-44AD-8481-4A8C0CDED9E8}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="292" xr6:uid="{F96CE3E8-4854-4A6B-9EB1-3A5C6395160B}" r="K27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DD1FABFB-5867-46AB-8C7F-C41F0353E1E0}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="293" xr6:uid="{03DCFB05-E6D5-4819-A240-F6709D7643EA}" r="L27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0FC53943-7063-4E03-ADD3-7C73B04EECDF}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="294" xr6:uid="{3E283170-B7D7-41B9-AB0C-477C440E43A3}" r="M27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AF4C8B59-6549-492E-8DAE-A53A4C6F3433}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="295" xr6:uid="{3BE21E2A-127D-4F86-9761-03100AE9813A}" r="N27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{603025BF-249D-49B9-8E73-CA9BAE040548}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="296" xr6:uid="{3A2F50CC-CD9E-4951-98B7-BC5C07EF58C7}" r="O27" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CD3DD8B0-7B12-4145-A1AD-21F3355EEF93}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="297" xr6:uid="{C522E097-B53A-4E3B-BBC5-4A61EE71DACE}" r="F28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9EFEE546-E785-4E44-83F9-AF9D1E1B492B}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="298" xr6:uid="{730AAAAC-218D-42E3-BB25-4B72FA751583}" r="G28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8B66EA11-94A4-45D9-B787-3B6A5209AE57}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="299" xr6:uid="{C5497A77-4CBB-4960-B73B-A9C78F081344}" r="H28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8CAEA033-3071-4683-81D8-8E1FAC9B5063}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="300" xr6:uid="{1673761C-B332-461C-B606-C44570CDECEC}" r="I28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BF54B878-315A-48AF-86CE-BE1A22190FCE}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="301" xr6:uid="{2EE9FBE7-7C2F-4E73-A905-35A921EC0F0E}" r="J28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D8536C17-407D-4869-9E4B-C80478037C95}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="302" xr6:uid="{4710DEC1-8D17-43E8-AAD0-34FD6F7314F6}" r="K28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BE3031E4-7A14-4D20-BD1B-9CAA0D1A8DD1}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="303" xr6:uid="{73D1AD5B-7E23-4D7D-B91D-61F498C2853D}" r="L28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7DFDA654-6A5E-48AA-A627-91AADADBDB00}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="304" xr6:uid="{1415BF8B-7F67-4ABE-9C3E-89415C970C70}" r="M28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{11B78210-3020-44ED-AE4C-F777B8F55398}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="305" xr6:uid="{394ABCE7-E1FD-450B-B1E9-84B8D795849F}" r="N28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0DA11EE8-54B0-4CDA-BD6A-EBF1E3893970}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="306" xr6:uid="{19412498-55BD-4B7B-91D6-6BB99288A031}" r="O28" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7DFFD76A-C4EC-407A-9449-6316106B6B24}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="307" xr6:uid="{410F202B-30EA-49DC-84D5-477B6F82328E}" r="D29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5271B3EE-C6C1-4FAE-8404-9028C1C129BA}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="308" xr6:uid="{52F55938-FADA-428D-96C2-AF0D23F3FDED}" r="F29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{482C1368-038E-491E-B240-3EC6AFADEAF8}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="309" xr6:uid="{43216B5F-4D05-42CA-A5F4-1404F8309436}" r="G29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{93C93FEC-9B6F-46D6-AB0A-03257CF463AD}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="310" xr6:uid="{9052AC91-1B10-4B7F-98AF-BF63EA90F05D}" r="H29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2E36C4AA-11E3-45A3-A98D-25DB303E1636}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="311" xr6:uid="{D83F75AF-C446-4508-94D2-4A4AC80933AB}" r="I29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7A8437C4-BE3D-4FC6-9A60-163233BDF82B}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="312" xr6:uid="{3D8F612B-4391-4E9F-8BA0-293BE88CF33B}" r="J29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4B6F38AA-CE9B-46FA-B3F6-A2ABC4D6F391}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="313" xr6:uid="{28E7F8F6-4473-44CA-BA5C-D982A5B3E731}" r="K29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7F5BE9AF-2EB4-45F8-B110-10DAC9EB45AE}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="314" xr6:uid="{AC0F8A3A-47CA-4C3E-9DD4-672034EE31EF}" r="L29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{82EF879E-0E55-4AED-8787-FEEDFC6BE1E7}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="315" xr6:uid="{F9B8B15A-628A-4394-91D8-F66CC00C6717}" r="M29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2F785566-2A02-4972-AF5F-60F5A44FB0FA}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="316" xr6:uid="{57253D2F-50CA-4340-8913-A10D49B33717}" r="N29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CD7EBC1A-CDDF-4DEF-93DC-56B20DB60069}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="317" xr6:uid="{EF880459-46BD-43E4-9DD0-182695BC55B0}" r="O29" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A1D49B5B-355D-45A1-BCCF-D7DD0D434E8F}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="318" xr6:uid="{86546CF1-26AD-478A-97EB-13B9911310C7}" r="F30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AFAB0253-69F4-4C05-9EFA-5CCABFBFAE8C}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="319" xr6:uid="{516D57A5-35A1-409D-9026-520DC879249B}" r="G30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{205D2762-8AD4-42CA-96A2-31B537726E89}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="320" xr6:uid="{54FA7656-FF55-4F19-BDDA-E8CF98574829}" r="H30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{86C1B7E0-9FF9-4460-AC6A-4F80CFD9EB9E}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="321" xr6:uid="{439C2C27-DD52-4129-9A08-AFF9D39D352F}" r="I30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B7DEBABA-003A-47F1-A66A-3A834357E5D0}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="322" xr6:uid="{ED933759-EE60-41BA-899C-6C8DB0069F78}" r="J30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{6E675471-32BD-4882-86A3-45356A7201B2}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="323" xr6:uid="{E03F4205-F18A-49FB-AD21-BA10A6E8BCC4}" r="K30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{909C1916-08CC-40F3-BF8D-C5EDAEF86DDB}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="324" xr6:uid="{9BCF6ECD-8E9F-46C6-8ED2-22E6C5353487}" r="L30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{48086279-F47D-4BA7-8589-48F4E6A3DC32}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="325" xr6:uid="{A8CA7541-54B7-4B73-B68D-7CCA92DF46D4}" r="M30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{824F603A-172C-4160-AD25-A06D55154A1B}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="326" xr6:uid="{3B9919F7-FDD2-475E-8409-C09EBE4E246A}" r="N30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B44C519B-E9B2-4773-AF82-B8C6164DA655}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="327" xr6:uid="{5067F0FE-39E1-4585-A023-005578A235A1}" r="O30" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{70EA3D53-75B7-4BEC-8927-B95875FB8263}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="328" xr6:uid="{C153177C-3A69-460B-AAD8-614786EA914E}" r="D31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A317B645-3F1E-4F83-91CC-2601E3B7D9DF}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="329" xr6:uid="{789581C2-4C18-4ED6-A156-7FEB6FE6164A}" r="F31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{91880CB9-7A5A-4975-A4EF-6F04637F7EFD}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="330" xr6:uid="{BF34A303-5BA5-4318-B7BD-9D9EDDEF2767}" r="G31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4C7A14E3-ADF5-4F99-AFD3-1124DE0042EC}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="331" xr6:uid="{741A8102-5C17-4EAF-9D4F-4E2B05752B16}" r="H31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{DEEEA157-E278-4EB1-8E57-BD1CDFBCF8C0}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="332" xr6:uid="{26BC1584-AAB3-4C14-BBC8-8D3B9C36BD10}" r="I31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{0B7CAAF8-4176-47AE-8314-2FA83A3B2A1D}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="333" xr6:uid="{342D13B2-94E6-4292-80F2-5793079A63DF}" r="J31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8B9BE7DA-8114-4FED-8137-C01292E0E6F3}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="334" xr6:uid="{B3510ACE-FA1E-40A6-91C1-7328F657F8C7}" r="K31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7A511F03-224B-41C0-A1DF-DA855B0B657C}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="335" xr6:uid="{C78A02E9-D4B3-4C5F-8ED2-79DA9DADF637}" r="L31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{042FD1FF-340B-412D-9EC9-CC75892D1D98}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="336" xr6:uid="{DB110E5B-10A1-48F1-99B6-F5B5D83832D7}" r="M31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E08CA779-2F0E-46B4-AABF-A9D942DF3774}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="337" xr6:uid="{B750749A-8C8E-4251-83B7-E71AB4A725F9}" r="N31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9BAF118F-771C-40CD-8802-3785EB27AB07}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="338" xr6:uid="{75ADF765-DDA7-420D-9D2C-09DC2FCB98C2}" r="O31" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5BE9F1DB-DD8E-43D2-A040-55C9EDCD4811}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="339" xr6:uid="{F58DC71F-F3AB-42F7-9D8A-76691FC9AD42}" r="F32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BF72B03B-DDB3-499C-9F52-A7AC91F4B4FE}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="340" xr6:uid="{54C2EEB1-637B-4989-A6C3-35182FF1EEC8}" r="G32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{90E3B395-58F1-458A-8A9E-E44DC20307C4}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="341" xr6:uid="{B40A2D88-8AB6-423B-80BD-0F13100E7AF7}" r="H32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{89B5BD76-CA05-4A49-A83C-310790CCB027}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="342" xr6:uid="{FAA23ED2-B8B3-463A-B9AA-ABA9E6C5A728}" r="I32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FB229CD9-052B-457A-A4CB-4DC09CCFA7C4}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="343" xr6:uid="{E5B03CD0-043B-4FBF-88BD-E163DBA23292}" r="J32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{14DABB3E-2013-410D-9C5B-93CE4B8D5757}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="344" xr6:uid="{560DBDDA-E1A2-4102-B112-EA51246C7016}" r="K32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{27565EA8-9A55-468F-B396-06B253588B8F}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="345" xr6:uid="{A47E7D00-C60F-4BD9-A3AD-08801F13E781}" r="L32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{8BA4DBDF-62BE-4A9E-A2AB-3A1A2C82B221}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="346" xr6:uid="{311446FA-5C24-456D-81DB-6407359E6B23}" r="M32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{967AB312-A4F1-492D-B2AB-477A25BB10D1}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="347" xr6:uid="{F702120E-9D9E-4ABE-932B-5477790733BF}" r="N32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D805442D-C95C-499D-94A3-EA5D4A49431D}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="348" xr6:uid="{247F0F41-7A2D-48B1-99B4-D3B8846FD723}" r="O32" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E8828886-A11F-48C4-81D3-641C399A7FF1}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
 </singleXmlCells>
 </file>
 
@@ -2653,6 +4451,426 @@
   <singleXmlCell id="96" xr6:uid="{E10730C3-0AE0-4D34-8532-F22444F526CC}" r="O4" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{44DD8261-7662-4F8B-A141-CC6BBBA0005F}" uniqueName="Y10">
       <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="349" xr6:uid="{E74D5880-25E2-4887-A791-4DF67388C46D}" r="D5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F566D37B-FE11-42E4-83EE-34243988604F}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="350" xr6:uid="{FE0E3BAE-92B8-4390-8C15-F4D1FF292A5F}" r="F5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F53BC235-71F4-44B7-BDFD-2031E9FC5651}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="351" xr6:uid="{A6A32FC5-443E-4FEF-BD59-818CA0892029}" r="G5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A9286F07-3051-46AA-AB72-98D60721B00A}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="352" xr6:uid="{60118B27-2826-4A5E-A92F-52E7831FFE93}" r="H5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CDA26DF8-CB85-46B6-A9C4-307DF3CA29CA}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="353" xr6:uid="{99810C30-E218-42F4-83C9-F57A1AD09418}" r="I5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9148D5D2-3E31-464E-9D22-19DD531E27C3}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="354" xr6:uid="{809DB2AD-1B8A-4E6C-A1F1-9B121C7B4BD3}" r="J5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{4412F8F2-D207-45CB-ABC4-A010A343FA5D}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="355" xr6:uid="{6C46E596-70DE-4E97-AED0-9456BCABBEED}" r="K5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{ADD16782-1EF7-42FA-8E6B-60C6C21DE432}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="356" xr6:uid="{F48512C4-7B7D-4351-8EC1-4F16E9A9582A}" r="L5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1F58F81F-9A3F-41E4-A98C-D81D1C6B2681}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="357" xr6:uid="{531D42D1-4C90-460F-BA82-FEDF901BE070}" r="M5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2A677C87-6478-48AC-82BB-A8443A2DA2EE}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="358" xr6:uid="{ECA00FC2-44DD-4CB6-97D3-EA8B08C55937}" r="N5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E14241DE-E100-435A-8D30-4AADC97D3D95}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="359" xr6:uid="{A5E4A69D-379F-4C35-BE0F-64920C73DC6A}" r="O5" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BF42CFDD-A38D-46B7-B991-4BEEAB5BEC41}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="360" xr6:uid="{9E5BA998-9A82-4994-AE96-FC74F69CA0F9}" r="F6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{322E3C5C-70D3-4118-B602-EC2B4EDCC6C8}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="361" xr6:uid="{0AD073DD-EFB1-4665-851D-C8E83EC8867E}" r="G6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9E9F15BF-F44B-4F21-9DC2-C2C7C599CC6F}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="362" xr6:uid="{55664568-E019-416B-80B5-2E54ABBF86FB}" r="H6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EC5408E9-06E6-40F6-B83A-79B390A38DD9}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="363" xr6:uid="{8BA72312-0233-47F5-A4F2-46A0B7902D27}" r="I6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{82FF6F06-92DC-4893-BB97-5AC404739181}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="364" xr6:uid="{C9777223-8C62-489D-91E8-4FB13F9D18D2}" r="J6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5CD63E97-53C6-4B33-9ED7-0E5154515746}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="365" xr6:uid="{C8A9F6FB-D5E7-42A3-9360-2B06C3E70B53}" r="K6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{802EF218-3194-4D24-9A57-B35B9CDA77D1}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="366" xr6:uid="{5C785C06-FC86-400D-A02F-9A7B43A0B478}" r="L6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D8997352-ED97-43FD-9E2E-18C836394DF7}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="367" xr6:uid="{668B0036-0545-49E4-B736-F280D22C64C4}" r="M6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{5E5EDA36-B6A6-49A4-BE0F-7CEC1F287861}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="368" xr6:uid="{AFA78533-4FC9-4428-A86B-94BEC58F4678}" r="N6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{CE60AB1F-663B-45B0-9E8E-27935AD4A0EF}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="369" xr6:uid="{24F4C372-C70B-441E-A435-D7A07C9540FE}" r="O6" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F9ECCEEC-B6AC-4D4E-B2C6-36FC247FD6BD}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/attack/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="370" xr6:uid="{E0F87057-D434-4253-A7AD-1D5A1554E1B0}" r="D7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{70B1E27E-DAED-4E88-BF24-E1ADA6B804B2}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="371" xr6:uid="{12A433EC-BA3A-4B98-87DF-C00AC69FBC61}" r="F7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{441DB686-E604-496D-8A4D-DE2946E14B68}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="372" xr6:uid="{595FAAEC-E1B5-4718-A453-ED3AD0DDEDAF}" r="G7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E8FE103B-D809-4E7D-A19A-65F1C16F796A}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="373" xr6:uid="{C64606F2-0723-45B2-B5E9-A887FFC7DE10}" r="H7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B5839EA4-B5F7-4847-89CD-C59666D59041}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="374" xr6:uid="{EFB817D3-DD5D-4689-8525-471704BC1D2F}" r="I7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C806FD9B-1647-4527-A4FB-9FD69B16D5C9}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="375" xr6:uid="{B5740883-613A-4697-B043-C34B5AFCE994}" r="J7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{20B2E79F-1FA9-4C5F-8676-D9681CB400CD}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="376" xr6:uid="{B86BC73C-0F20-4399-A7FB-89F47F9FEF9F}" r="K7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{69CD7C56-4895-475E-A45A-BC0F25469A35}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="377" xr6:uid="{B1A94002-6AFD-4FD3-8CB1-393FCCC53C10}" r="L7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E32732CB-DE05-4DAB-A18A-15B95D2145A0}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="378" xr6:uid="{DDE70D4D-48D5-43BA-AB95-15363A347AEB}" r="M7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BA59DABB-DA47-4C51-9C14-AF1F60D84E48}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="379" xr6:uid="{ACB61B8E-86CC-48E6-9CCB-ACDC7AC80F68}" r="N7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{00ED722F-FBB6-4EEB-A957-C80F931ADB8B}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="380" xr6:uid="{60827E06-83CC-4631-B0E5-8CC1D1ADC079}" r="O7" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B2789E0C-B54C-481E-907C-1953063BA76C}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="381" xr6:uid="{2C0D1C34-26FB-45A1-9D76-900A0336D1D4}" r="F8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F11278BA-5076-40D5-A909-E756F7485CED}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="382" xr6:uid="{C912B451-38D3-4318-9B08-13915C2A52E7}" r="G8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{68443833-661D-4813-9255-7F2E5450E091}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="383" xr6:uid="{8527BD2C-17D3-42FB-85E2-E1CB73E475D0}" r="H8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{375B824D-C19C-4A1A-BFE3-D15776014F00}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="384" xr6:uid="{B74DA065-4CCD-4AA8-A5D6-2C35D2420C48}" r="I8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D3DBC062-1C37-4A42-9658-701256ED0867}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="385" xr6:uid="{25A646D6-27F3-4886-A6D2-703BC98ADA3D}" r="J8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{67183F4B-8554-4D06-BDDD-B08C20043229}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="386" xr6:uid="{4C993F68-C722-411D-88A2-987B59609D3C}" r="K8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C9679D41-B4E0-4E62-AE48-2D145F501930}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="387" xr6:uid="{26A03B5C-02DC-4CDC-B9A1-15ACDD645B4B}" r="L8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{694B7C92-3E2E-4B14-9C12-CCF1F784053F}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="388" xr6:uid="{B7E6DB07-652D-4F32-8900-B9CB092B4D30}" r="M8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{56A3B105-6EBE-4E0B-B315-34474A882FF4}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="389" xr6:uid="{84053DCD-79E4-4554-8C4C-C1DF1E293A4B}" r="N8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{ADB54220-B7DA-4687-B7D5-762970965CD2}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="390" xr6:uid="{E11B282C-312D-41E8-BB49-254D277A6F9D}" r="O8" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{C0ED399E-2A1A-4765-8B0A-2B1E7E93DC9C}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/defend/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="391" xr6:uid="{433ABB2C-4ADF-4A43-AE0E-EB6CF446221E}" r="D9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A7C6B042-3489-4E05-A1DF-EA74CF12990D}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="392" xr6:uid="{C7C03912-406F-4291-B923-24EA26E250EC}" r="F9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{672E7012-BCEA-440B-9EF6-44B2CDF41410}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="393" xr6:uid="{EA774564-1340-4DB2-BF1C-EC02EF9BC847}" r="G9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{36D40DB5-74F9-42D1-89B5-775638C8FA20}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="394" xr6:uid="{83A1B848-769A-418D-BF8E-20A0823F0AD1}" r="H9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2966D2E4-84C2-47F7-9E74-7648E6F986D8}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="395" xr6:uid="{E5F39BD8-9B42-4532-8DA2-11F459EAE639}" r="I9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FC12DB5A-3071-4C95-BA64-A59EC51F0579}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="396" xr6:uid="{5220FF58-04AB-4EA2-B537-D21350729993}" r="J9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7D3FBB4A-DD38-422D-8769-4EE84ADB6A60}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="397" xr6:uid="{AC058A37-D1C3-42A8-B379-D1A1516CB0D8}" r="K9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B5DAD10C-1DEF-482B-A6A3-050F0921F6CB}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="398" xr6:uid="{9CDBA797-72C4-455C-B285-7B3D6691B59B}" r="L9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{891B77CA-9E72-4119-BE64-E1C002C15F5B}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="399" xr6:uid="{3690BF20-3A80-4C96-BBF0-45FEB882E9C2}" r="M9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{74E88E21-8AFE-410E-9C99-4C106C16548C}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="400" xr6:uid="{94B57FE5-476D-4D28-8F17-C90A263232C0}" r="N9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B7977BA9-4703-4D9C-A0E2-B994E12D5DB2}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="401" xr6:uid="{058B0527-8039-4C7A-B58B-308B48DFF15C}" r="O9" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F57C4D94-5403-4D34-AC48-39D7591EFC79}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="402" xr6:uid="{AC6F47E5-624C-491F-9BBF-B987F63CDDA9}" r="F10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{170F3026-A932-4300-830A-A499B919F0DB}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="403" xr6:uid="{16E90B48-7ED9-436F-8F71-4913B110B665}" r="G10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B4BFF218-45C4-47CE-8984-70F19649A313}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="404" xr6:uid="{55334F63-59CB-435E-BEDC-5D00A2AFEABD}" r="H10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1CDF7CDB-C785-41C5-BCE6-BC175424C695}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="405" xr6:uid="{08A161E0-4FCD-402F-BE50-829833CBB150}" r="I10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A912F800-4870-4BA9-8CAC-BAE59A3368FB}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="406" xr6:uid="{D9229714-8449-4483-9DAA-6489991C6016}" r="J10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{2FA7CA45-FC8D-47BA-9899-BAB5ABC56592}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="407" xr6:uid="{68A2769F-5075-4BC7-85D1-631D0CE864C7}" r="K10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{AA639368-49FC-4BD2-ADBA-8755F7E9E9D9}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="408" xr6:uid="{ED3F4241-D0DE-4C93-A847-B8C8C6F49932}" r="L10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{F6C264C8-4384-4732-97C0-7D31D186FE60}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="409" xr6:uid="{C78B4332-C9CB-4AAA-8454-89E7E0BEA05D}" r="M10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{BC40D7B0-E172-4510-AD31-869227A38E44}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="410" xr6:uid="{185A2039-3F0C-4838-A1EE-CFB2DE2537D8}" r="N10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9F187299-F454-4FDE-8E47-BCA8B004410D}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="411" xr6:uid="{F3C34B20-0300-4775-AD48-669E0646AF1E}" r="O10" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{EDAB807D-0406-4DC6-9DD7-BE4624C8EC64}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/damage/Y_axes/Y10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="412" xr6:uid="{46BC0149-2CBC-4C06-A32D-67BA80EF8B2D}" r="D11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B9E411BC-4F86-4A6A-AE78-126416BACB4E}" uniqueName="animationSpeed">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/animationSpeed" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="413" xr6:uid="{913B04EC-2605-4F1B-952A-7E5B1C8D32EC}" r="F11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{B9AB5519-E516-43C1-A5EA-F05F271CF9E2}" uniqueName="X1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="414" xr6:uid="{F0393934-7778-42E6-AACA-A4391B693000}" r="G11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FE51EA11-B181-4A31-B450-6D4A5AEF9824}" uniqueName="X2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="415" xr6:uid="{DE0431F8-E022-42FA-B995-FE8FE3F671F5}" r="H11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{30490540-286E-48CE-864E-A69CF6F94F93}" uniqueName="X3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="416" xr6:uid="{AC7B90FA-164F-41E2-B72B-A34423459A19}" r="I11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{1D359596-499B-4AAC-9D2B-5B36B8DB1647}" uniqueName="X4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="417" xr6:uid="{4050A3B4-E38A-4D10-8402-44B8BF03D11A}" r="J11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{A7B367AA-33DD-46CE-B2EB-926990ABA5BD}" uniqueName="X5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="418" xr6:uid="{FB8783A7-B618-4792-94C4-0561C2B51023}" r="K11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FF91F7BB-172C-4797-A06F-00347D06BB2F}" uniqueName="X6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="419" xr6:uid="{98EF79E1-3021-4492-B386-99C225CB1003}" r="L11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{7FA2BA53-EAA6-4F00-BAC1-54BBB6617D99}" uniqueName="X7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="420" xr6:uid="{0BB603C4-E23F-41DD-BDE5-BE89EB22318B}" r="M11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{43EC812F-ADC4-4ACE-91C3-4643CC794515}" uniqueName="X8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="421" xr6:uid="{356FA574-10FE-497B-8C63-261B99856C87}" r="N11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{70FDC940-AC58-4735-A2E5-BCDB25786026}" uniqueName="X9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="422" xr6:uid="{874948EC-C7AB-4FF7-89BC-83CDB469B873}" r="O11" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{9E69C482-254E-4E9E-BEDA-3464B5BC2D31}" uniqueName="X10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/X_axes/X10" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="423" xr6:uid="{2DACC7BD-C78E-4E27-9B98-554DD891CDFE}" r="F12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{06A30549-65EA-4E3E-8893-0481BC5A80F6}" uniqueName="Y1">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y1" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="424" xr6:uid="{C826A9E3-8CD6-44F9-8716-A9FCA61D4DBB}" r="G12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{E566D533-B4E9-4AF3-9BB7-E54FFAA2534F}" uniqueName="Y2">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y2" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="425" xr6:uid="{9C9B9442-2352-4E76-8CCA-01DFAD1A86AB}" r="H12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{D970DCDA-D754-4827-B55F-4561D10D52CB}" uniqueName="Y3">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y3" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="426" xr6:uid="{6BEA116F-0420-4256-A8ED-D55B6C076A96}" r="I12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{02BA46FA-59D3-4E8F-99D8-7EC2095D911D}" uniqueName="Y4">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y4" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="427" xr6:uid="{33D7F880-2F73-4EB1-852E-044C511A9E7A}" r="J12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{244CA54D-1EE5-4A10-93E9-9A12E91C74C2}" uniqueName="Y5">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y5" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="428" xr6:uid="{FC2C50E3-C2D5-4759-BC36-6D55C6744837}" r="K12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{65F85134-01A0-417F-B518-6A08260EAB41}" uniqueName="Y6">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y6" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="429" xr6:uid="{B0F21FF9-C9A2-4BD8-A761-AC7BD0B6DD1D}" r="L12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{FD0A8F4C-3DDA-4C98-A134-594E6E1E5330}" uniqueName="Y7">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y7" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="430" xr6:uid="{AB8AFDD2-CE60-48CC-8A6D-8CFF70B34131}" r="M12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{82590511-26CE-4E89-9A59-A30E0752D5B8}" uniqueName="Y8">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y8" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="431" xr6:uid="{5EF684E5-2315-4FD1-A8D4-B9061A18BD78}" r="N12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{37E400DE-ECEC-4466-8913-0E788B00C3E8}" uniqueName="Y9">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y9" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="432" xr6:uid="{F4B0D2EF-0040-4949-8967-0EB78DB1FA8C}" r="O12" connectionId="2">
+    <xmlCellPr id="1" xr6:uid="{131AEEB4-BCF0-4A26-993B-A1B00932C4AC}" uniqueName="Y10">
+      <xmlPr mapId="1" xpath="/characters/heroes/heroine/death/Y_axes/Y10" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -2927,7 +5145,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,24 +5320,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B2:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="5.28515625" style="1" customWidth="1"/>
     <col min="12" max="16" width="5.28515625" customWidth="1"/>
@@ -3170,13 +5389,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3203,9 +5422,9 @@
       <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
@@ -3230,11 +5449,11 @@
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="112" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3261,9 +5480,9 @@
       <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
@@ -3288,133 +5507,271 @@
       <c r="P6" s="63"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="125" t="s">
+        <v>173</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="64"/>
+      <c r="F7" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="64">
+        <v>1111</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="61"/>
+      <c r="F8" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="61">
+        <v>5353</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="112" t="s">
+        <v>174</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="62"/>
+      <c r="F9" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="62">
+        <v>789</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="63"/>
+      <c r="F10" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="63">
+        <v>7070</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="125" t="s">
+        <v>175</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="64"/>
+      <c r="F11" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="64">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="65"/>
+      <c r="F12" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="65">
+        <v>654</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="117" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -3445,9 +5802,9 @@
       <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="106"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="17" t="s">
         <v>7</v>
       </c>
@@ -3476,371 +5833,787 @@
       <c r="P14" s="63"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="125" t="s">
+        <v>176</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="64"/>
+      <c r="F15" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="64">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="61"/>
+      <c r="F16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="61">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="95" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="102"/>
+      <c r="D17" s="112" t="s">
+        <v>177</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="62"/>
+      <c r="F17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="62">
+        <v>987</v>
+      </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="63"/>
+      <c r="F18" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="63">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="100"/>
+      <c r="D19" s="125" t="s">
+        <v>178</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="64"/>
+      <c r="F19" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="64">
+        <v>3333</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="61"/>
+      <c r="F20" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="61">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="95" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="112" t="s">
+        <v>179</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="62"/>
+      <c r="F21" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="92"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="109"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="136"/>
       <c r="E22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="67"/>
+      <c r="F22" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="67">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
-      <c r="C23" s="93" t="s">
+      <c r="B23" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="114" t="s">
+        <v>180</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="60"/>
+      <c r="F23" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="N23" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="60">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="104"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="61"/>
+      <c r="F24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="61">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="95" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="102"/>
+      <c r="D25" s="112" t="s">
+        <v>181</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="62"/>
+      <c r="F25" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="62">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="103"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="63"/>
+      <c r="F26" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="63">
+        <v>700</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="100"/>
+      <c r="D27" s="125" t="s">
+        <v>182</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="64"/>
+      <c r="F27" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="64">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="104"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="61"/>
+      <c r="F28" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" s="61">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="102"/>
+      <c r="D29" s="112" t="s">
+        <v>183</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="62"/>
+      <c r="F29" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="O29" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P29" s="62">
+        <v>741</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="103"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="63"/>
+      <c r="F30" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="63">
+        <v>756</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="94" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="100"/>
+      <c r="D31" s="125" t="s">
+        <v>184</v>
+      </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="64"/>
+      <c r="F31" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="N31" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="64">
+        <v>851</v>
+      </c>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="65"/>
+      <c r="F32" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="O32" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" s="65">
+        <v>324</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
-      <c r="C33" s="98" t="s">
+      <c r="B33" s="97"/>
+      <c r="C33" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="112"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
@@ -3857,9 +6630,9 @@
       <c r="P33" s="66"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="17" t="s">
         <v>7</v>
       </c>
@@ -3876,11 +6649,11 @@
       <c r="P34" s="63"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
-      <c r="C35" s="94" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="100"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3897,9 +6670,9 @@
       <c r="P35" s="64"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="91"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="104"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="15" t="s">
         <v>7</v>
       </c>
@@ -3916,11 +6689,11 @@
       <c r="P36" s="61"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="91"/>
-      <c r="C37" s="95" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="7" t="s">
         <v>6</v>
       </c>
@@ -3937,9 +6710,9 @@
       <c r="P37" s="62"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="91"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="103"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="23" t="s">
         <v>7</v>
       </c>
@@ -3956,11 +6729,11 @@
       <c r="P38" s="63"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="94" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="100"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
@@ -3977,9 +6750,9 @@
       <c r="P39" s="64"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="91"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="104"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="15" t="s">
         <v>7</v>
       </c>
@@ -3996,11 +6769,11 @@
       <c r="P40" s="61"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="91"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="109"/>
       <c r="E41" s="4" t="s">
         <v>6</v>
       </c>
@@ -4017,9 +6790,9 @@
       <c r="P41" s="62"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="92"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="109"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="24" t="s">
         <v>7</v>
       </c>
@@ -4036,11 +6809,11 @@
       <c r="P42" s="67"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="90"/>
-      <c r="C43" s="93" t="s">
+      <c r="B43" s="97"/>
+      <c r="C43" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="111"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="3" t="s">
         <v>6</v>
       </c>
@@ -4057,9 +6830,9 @@
       <c r="P43" s="60"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="91"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="104"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="111"/>
       <c r="E44" s="15" t="s">
         <v>7</v>
       </c>
@@ -4076,11 +6849,11 @@
       <c r="P44" s="61"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="91"/>
-      <c r="C45" s="95" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="102"/>
+      <c r="D45" s="109"/>
       <c r="E45" s="4" t="s">
         <v>6</v>
       </c>
@@ -4097,9 +6870,9 @@
       <c r="P45" s="62"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="91"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="103"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="17" t="s">
         <v>7</v>
       </c>
@@ -4116,11 +6889,11 @@
       <c r="P46" s="63"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="91"/>
-      <c r="C47" s="94" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="100"/>
+      <c r="D47" s="107"/>
       <c r="E47" s="5" t="s">
         <v>6</v>
       </c>
@@ -4137,9 +6910,9 @@
       <c r="P47" s="64"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="91"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="104"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="15" t="s">
         <v>7</v>
       </c>
@@ -4156,11 +6929,11 @@
       <c r="P48" s="61"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="91"/>
-      <c r="C49" s="95" t="s">
+      <c r="B49" s="98"/>
+      <c r="C49" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="102"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="4" t="s">
         <v>6</v>
       </c>
@@ -4177,9 +6950,9 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="91"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="103"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -4196,11 +6969,11 @@
       <c r="P50" s="63"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="91"/>
-      <c r="C51" s="94" t="s">
+      <c r="B51" s="98"/>
+      <c r="C51" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="100"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="5" t="s">
         <v>6</v>
       </c>
@@ -4217,9 +6990,9 @@
       <c r="P51" s="64"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="92"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="101"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="19" t="s">
         <v>7</v>
       </c>
@@ -4294,6 +7067,7 @@
     <mergeCell ref="C51:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4304,15 +7078,16 @@
   </sheetPr>
   <dimension ref="B2:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="16" width="5.28515625" customWidth="1"/>
   </cols>
@@ -4363,13 +7138,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="114" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4400,9 +7175,9 @@
       <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
@@ -4431,173 +7206,357 @@
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="112" t="s">
+        <v>185</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="62"/>
+      <c r="F5" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="62">
+        <v>911</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="63"/>
+      <c r="F6" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="63">
+        <v>811</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="125" t="s">
+        <v>186</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="64"/>
+      <c r="F7" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="64">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="61"/>
+      <c r="F8" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="61">
+        <v>321</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="112" t="s">
+        <v>182</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="62"/>
+      <c r="F9" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="62">
+        <v>951</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="63"/>
+      <c r="F10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="63">
+        <v>753</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="125" t="s">
+        <v>180</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="64"/>
+      <c r="F11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="64">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="65"/>
+      <c r="F12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="65">
+        <v>659</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
@@ -4614,9 +7573,9 @@
       <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="103"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="17" t="s">
         <v>7</v>
       </c>
@@ -4633,11 +7592,11 @@
       <c r="P14" s="63"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
@@ -4654,9 +7613,9 @@
       <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="15" t="s">
         <v>7</v>
       </c>
@@ -4673,11 +7632,11 @@
       <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="95" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="102"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4694,9 +7653,9 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
@@ -4713,11 +7672,11 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="100"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
@@ -4734,9 +7693,9 @@
       <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="15" t="s">
         <v>7</v>
       </c>
@@ -4753,11 +7712,11 @@
       <c r="P20" s="61"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="95" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
@@ -4774,9 +7733,9 @@
       <c r="P21" s="62"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="92"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="109"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="24" t="s">
         <v>7</v>
       </c>
@@ -4793,13 +7752,13 @@
       <c r="P22" s="67"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
@@ -4816,9 +7775,9 @@
       <c r="P23" s="60"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="104"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="15" t="s">
         <v>7</v>
       </c>
@@ -4835,11 +7794,11 @@
       <c r="P24" s="61"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="95" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="102"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4856,9 +7815,9 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="103"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -4875,11 +7834,11 @@
       <c r="P26" s="63"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="100"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
@@ -4896,9 +7855,9 @@
       <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="104"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="111"/>
       <c r="E28" s="15" t="s">
         <v>7</v>
       </c>
@@ -4915,11 +7874,11 @@
       <c r="P28" s="61"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="102"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
@@ -4936,9 +7895,9 @@
       <c r="P29" s="62"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="103"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
@@ -4955,11 +7914,11 @@
       <c r="P30" s="63"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="94" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="100"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="5" t="s">
         <v>6</v>
       </c>
@@ -4976,9 +7935,9 @@
       <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="19" t="s">
         <v>7</v>
       </c>
@@ -4995,13 +7954,13 @@
       <c r="P32" s="65"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="112"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
@@ -5018,9 +7977,9 @@
       <c r="P33" s="66"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="17" t="s">
         <v>7</v>
       </c>
@@ -5037,11 +7996,11 @@
       <c r="P34" s="63"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
-      <c r="C35" s="94" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="100"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
@@ -5058,9 +8017,9 @@
       <c r="P35" s="64"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="91"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="104"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="15" t="s">
         <v>7</v>
       </c>
@@ -5077,11 +8036,11 @@
       <c r="P36" s="61"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="91"/>
-      <c r="C37" s="95" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="7" t="s">
         <v>6</v>
       </c>
@@ -5098,9 +8057,9 @@
       <c r="P37" s="62"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="91"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="103"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="23" t="s">
         <v>7</v>
       </c>
@@ -5117,11 +8076,11 @@
       <c r="P38" s="63"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="94" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="100"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
@@ -5138,9 +8097,9 @@
       <c r="P39" s="64"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="91"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="104"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="15" t="s">
         <v>7</v>
       </c>
@@ -5157,11 +8116,11 @@
       <c r="P40" s="61"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="91"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="109"/>
       <c r="E41" s="4" t="s">
         <v>6</v>
       </c>
@@ -5178,9 +8137,9 @@
       <c r="P41" s="62"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="92"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="109"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="24" t="s">
         <v>7</v>
       </c>
@@ -5197,34 +8156,34 @@
       <c r="P42" s="67"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="111"/>
+      <c r="D43" s="118"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="104"/>
+      <c r="D44" s="111"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="102"/>
+      <c r="D45" s="109"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="103"/>
+      <c r="D46" s="110"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="100"/>
+      <c r="D47" s="107"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="104"/>
+      <c r="D48" s="111"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="102"/>
+      <c r="D49" s="109"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="103"/>
+      <c r="D50" s="110"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="100"/>
+      <c r="D51" s="107"/>
     </row>
     <row r="52" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="101"/>
+      <c r="D52" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -5287,94 +8246,102 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:B17"/>
+  <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="129.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="95" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="92" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="113"/>
+      <c r="B4" s="90"/>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="90" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="91" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="90" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="90" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="90" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="90" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="90" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="93" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="90" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="94" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="90" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="115" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="90" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="90"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="96" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/SpriteSchematicLibrary.xlsx
+++ b/SpriteSchematicLibrary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FF175-9B28-4C7C-B6FC-6DE713C33959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A661BB-8939-4AEF-950A-48DB1E501E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image Data" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="191">
   <si>
     <t>Monster</t>
   </si>
@@ -156,12 +156,6 @@
     <t>cactopus</t>
   </si>
   <si>
-    <t>../Images/dragon.png</t>
-  </si>
-  <si>
-    <t>../Images/cactopus.png</t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
@@ -649,6 +643,24 @@
   </si>
   <si>
     <t>0.55f</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>../Images/Characters/dragon.png</t>
+  </si>
+  <si>
+    <t>../Images/Characters/cactopus.png</t>
+  </si>
+  <si>
+    <t>../Images/Characters/rabbit.png</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>0.13f</t>
   </si>
 </sst>
 </file>
@@ -1698,6 +1710,63 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
@@ -1728,110 +1797,53 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2788,36 +2800,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X4" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="5" xr6:uid="{81FA2EA3-F1C7-4279-9FFA-A4EC1481976E}" r="J3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{22FE93BA-17E4-4BC9-B225-690EE574BA07}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="6" xr6:uid="{95C03E02-957E-488F-B978-8C74FD34E0B1}" r="K3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4412D8E9-4FF9-47C1-ABFD-DC7E4673AFA0}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="7" xr6:uid="{EE904470-DCE0-4FA0-A29F-114B02AE0502}" r="L3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{760EF9FA-39F8-4FA4-A7FE-2B73B7D745EE}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="8" xr6:uid="{D7A6A8BE-5748-4720-9A5F-2D1F4AAE509C}" r="M3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{CA6E4CB4-9E1D-4D3B-A46C-F8DFC0249588}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="9" xr6:uid="{804C61F1-E98E-4510-97FE-17A289690E75}" r="N3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{32DC1670-F821-4077-92A7-934F30882529}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="10" xr6:uid="{B24A0785-AA70-4EF4-94E3-9793205BE640}" r="O3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{077924EA-3F0C-4C7A-8583-5A113F37CD4A}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="11" xr6:uid="{581B9139-CAE2-4A33-A34E-49DBC24D392A}" r="F4" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{3FC8543C-246F-41DA-A701-1CD21AFFFD3B}" uniqueName="Y1">
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y1" xmlDataType="string"/>
@@ -2838,36 +2820,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y4" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="15" xr6:uid="{01F92496-4640-4F7C-A11A-22C6C7FFCB9F}" r="J4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{CB874198-509C-4836-8DF2-1EB208AD7677}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="16" xr6:uid="{90CB3D16-7A46-4FB0-95AC-59A291BB019C}" r="K4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8559F1B7-785A-4203-9270-74D16152D81C}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="17" xr6:uid="{92648EE9-8EE4-4621-9F96-6A4FA7586848}" r="L4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{533F5E07-A898-4EFF-B828-BB176BB7FA27}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="18" xr6:uid="{C26CC799-FA13-4D20-AD49-B1BBB68854CC}" r="M4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{758008E2-09E6-4973-B99D-3FE0FA3603BD}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="19" xr6:uid="{E5C5BCDB-0C15-4662-9902-656C34559333}" r="N4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7AEAEECB-1496-4D17-8072-CDA79C8AB1FC}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="20" xr6:uid="{90B66BE7-248B-49E1-B125-CF1B7EC745EE}" r="O4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{17573FB9-4896-4BA6-A961-49331DCB3DE1}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="21" xr6:uid="{B88978DD-1AAE-4A66-B5CB-54A4EB127D2D}" r="F5" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{CFC092AA-ED0D-4842-84FF-F20555A5EFB8}" uniqueName="X1">
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X1" xmlDataType="string"/>
@@ -2888,36 +2840,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X4" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="25" xr6:uid="{EEB67948-7A78-4293-835B-218376FAE94D}" r="J5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{11465811-78A4-40CD-93E9-A4E1AA2002C5}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="26" xr6:uid="{216631D2-AE55-4A75-ADFC-B946EF63A7C5}" r="K5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{00658A14-ABF0-4C14-B238-AF96DD9CA3A4}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="27" xr6:uid="{B72880A2-B919-4ADE-9CBC-CB6659F70E71}" r="L5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{D17557CD-55FD-433E-B114-4294070D39CA}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="28" xr6:uid="{56F03A71-20E4-4073-9BD6-D8970FCF57FC}" r="M5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{26869AB2-EF28-425F-9097-374BC18F8236}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="29" xr6:uid="{4E0BCED3-A6F4-4B49-8B38-84AF47A8675A}" r="N5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C998023D-8814-4FF3-BDC4-D1AB2865B9F5}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="30" xr6:uid="{2C2A9D74-C4D1-4473-A8FF-E6F46F908AD5}" r="O5" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{552E728D-F707-442D-B0D6-FB3EAA058EDF}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="31" xr6:uid="{96E37986-11D0-47AC-BE6A-D40FBE186D25}" r="F6" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{2D0FAEB4-C124-4B85-A7FB-4C628893FDE6}" uniqueName="Y1">
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y1" xmlDataType="string"/>
@@ -2938,36 +2860,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y4" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="35" xr6:uid="{7FB28921-96B2-4682-8EAA-5058F082AD1E}" r="J6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{77F8AC67-C8FD-41A3-BAE2-E35F3FFC3FAC}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="36" xr6:uid="{5383E278-7441-4218-A724-37068520A07D}" r="K6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4E7205B1-69F2-426F-95DE-889B8BE53B36}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="37" xr6:uid="{1623575F-3AB9-4B51-807C-FC0270EF22C5}" r="L6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{88A3E2B4-18B4-422E-8DED-DB9FE772F744}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="38" xr6:uid="{268DAD2C-B324-40E1-89FE-32AFBB329291}" r="M6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A54C55A2-8858-4FBA-86C6-CAB2EA267A17}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="39" xr6:uid="{55374B56-02AE-424C-8B23-DED4E0A2B182}" r="N6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{B2A091E4-7EF9-4029-A74E-6B7FBBFFC79C}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="40" xr6:uid="{25316D59-1113-4CA6-88F7-103139CBFBBD}" r="O6" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{02C11083-71C8-4544-BB34-ABB0E842C32D}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/dragon/attack/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="41" xr6:uid="{F98AAE3B-0D32-4126-AD1B-25101381C344}" r="F13" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{BB0C5C0B-D9C1-4766-9FEB-D761DDBADDDA}" uniqueName="X1">
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X1" xmlDataType="string"/>
@@ -2998,26 +2890,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X6" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="47" xr6:uid="{3E3D1B1D-543B-4D09-B314-F7DBC355496B}" r="L13" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{91903E9D-4AEB-4D59-922E-F90323C6BB9D}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="48" xr6:uid="{6D366FD1-A2CE-494B-890F-7DE1E25D3BE3}" r="M13" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{18C88D39-F3EA-4B5C-86A0-A701A0B2E54E}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="49" xr6:uid="{501C693B-0AE8-43C4-80E5-403F9879D415}" r="N13" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{1ACB860A-A048-4F71-A082-BECFF7E83B77}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="50" xr6:uid="{5F46BF26-7CEB-43A6-A7BF-4DCA36009284}" r="O13" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A448E112-442B-4404-ABC0-5C04D849EC44}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="51" xr6:uid="{A7DAB492-A986-485C-9466-4C6A04612B68}" r="F14" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{1020E4E3-1532-45C5-B705-C51472AFC9DC}" uniqueName="Y1">
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y1" xmlDataType="string"/>
@@ -3048,26 +2920,6 @@
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y6" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="57" xr6:uid="{CC069A4A-BA46-4253-B728-8E66B6F9DC7B}" r="L14" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{37F571F1-9857-4F56-BE1A-CACFDD1EB127}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="58" xr6:uid="{94CFA378-F7B9-4B98-A8DF-4C52D599F5CE}" r="M14" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C66EB256-5235-469A-8CC0-3992417E38FA}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="59" xr6:uid="{091390FE-AD69-42B9-8BA7-8B563B33A1FE}" r="N14" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4AD9BA05-FBBF-4F40-A4C6-0E6A7442ED24}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="60" xr6:uid="{5954B4E3-88AA-4C86-AB58-B330E1DDDCA9}" r="O14" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C03B5829-8B86-497C-AB7C-CAD7F7601A8F}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/cactopus/idle/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="65" xr6:uid="{F5A71FA4-966B-4035-972E-60635019C392}" r="D3" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{9FA23F53-3794-4D5B-AA72-C6A0209D7606}" uniqueName="animationSpeed">
       <xmlPr mapId="1" xpath="/characters/monsters/dragon/idle/animationSpeed" xmlDataType="string"/>
@@ -3816,531 +3668,6 @@
   <singleXmlCell id="243" xr6:uid="{ABF18830-AB9F-424C-9204-E0D8AA7C57D6}" r="O22" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{3E5B3311-031A-46C4-AF90-53E2B7989960}" uniqueName="Y10">
       <xmlPr mapId="1" xpath="/characters/monsters/cactopus/death/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="244" xr6:uid="{F684FA75-77EC-417E-BD5B-E67B03E4902D}" r="D23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{18B34BCD-9704-4EA1-A101-19B093447475}" uniqueName="animationSpeed">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/animationSpeed" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="245" xr6:uid="{FD5072C6-9C06-4073-8E55-4F69C7D5A396}" r="F23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{6DCF8794-7519-428C-932C-A845DAFDC6D6}" uniqueName="X1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="246" xr6:uid="{60BAD6E6-F413-44ED-B0BD-82E58DB1FD7C}" r="G23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C7779586-C62E-4CC7-B7DE-5502DD0ECFE6}" uniqueName="X2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="247" xr6:uid="{F0F44E9E-CA34-4827-A635-C23E6FB9F890}" r="H23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{AC015C74-B42D-40EF-A377-C8B8A7478847}" uniqueName="X3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="248" xr6:uid="{27A90034-FFAF-4F06-87B6-CEE24302BEC2}" r="I23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{85413C31-6974-4A97-B84A-BFFA3D563444}" uniqueName="X4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="249" xr6:uid="{9E50D2BF-3743-427F-90C3-D94636B47629}" r="J23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C2C378FD-CF27-4F03-B388-DE17A9FB4D1A}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="250" xr6:uid="{82A1F53E-0609-408A-A81E-FE8F0ED471CB}" r="K23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{33AA3C26-6DC3-4EB0-BB7B-DEF63F8E26D1}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="251" xr6:uid="{40B95008-70B9-45A6-9655-C7B192BF710F}" r="L23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0DA5CF41-60D4-4332-A90A-34ACFC4CAEE5}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="252" xr6:uid="{E64504C2-FC97-4D29-AB7A-94A3B9E60203}" r="M23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0362F492-46A9-493F-A17A-0CECD11B4285}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="253" xr6:uid="{8A50555E-B4C0-4721-BFA2-5D0137D5120D}" r="N23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{6538582A-5A2B-4E6D-B4C8-0FE325B14080}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="254" xr6:uid="{5D168893-89CE-48F0-B791-52F84AE8B758}" r="O23" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{2CB5C427-6DAF-45EC-A6B4-254371195B52}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="255" xr6:uid="{54A8CEEC-89E8-4111-9F46-80BF5006D6E6}" r="F24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A441956C-ED29-4DA0-9B50-370E641E55E2}" uniqueName="Y1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="256" xr6:uid="{ACAD9C2C-7494-4BAD-BA1C-AED17FA98569}" r="G24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{9ED26B60-C7D9-4CAE-87A3-BA6A5C68E0A9}" uniqueName="Y2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="257" xr6:uid="{7739B4D0-17B4-4692-87D5-E16AFD9A9B79}" r="H24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{6A38394A-6AD0-4F2C-A71B-9133EF616AD4}" uniqueName="Y3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="258" xr6:uid="{D424D973-3C99-4D2D-808D-97CB94DCFF60}" r="I24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{2EF07B84-35E6-4EB0-BA55-512D88790A6A}" uniqueName="Y4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="259" xr6:uid="{C15B10D8-4666-4A52-B1C4-ECCE3769640A}" r="J24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{58D3A5D9-DE49-460D-8A50-C7BCBDDBB42D}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="260" xr6:uid="{915B82BB-A146-487B-89E5-95B131ED1A84}" r="K24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{03F2D233-F773-4408-AAA6-55906A2B7899}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="261" xr6:uid="{E7645B05-909A-46BB-8D44-AC381F9377CE}" r="L24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{3E6BBA20-26AA-4C6C-8E44-6510F1687563}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="262" xr6:uid="{12DB19AF-C399-4B6D-8651-EC5A694D8C85}" r="M24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{63587508-9B23-4BFB-B4FC-7D71786529AC}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="263" xr6:uid="{7AB8BFCB-5E45-45E2-B3EE-6BB399523192}" r="N24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{958B413B-7279-48BA-AE0E-491D4A56ADDA}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="264" xr6:uid="{277E2ED8-4063-4729-86FB-379206ED5A4B}" r="O24" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{44DDDAAD-E701-489E-B50B-F64BD2E28539}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/idle/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="265" xr6:uid="{813BF6B6-6FE0-4476-AC31-2C8C90777B16}" r="D25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{95F59884-211D-4D6A-9BBB-4CDB5D8C825F}" uniqueName="animationSpeed">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/animationSpeed" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="266" xr6:uid="{BBC18CD3-D749-42F3-9A2E-D921DCF3C758}" r="F25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{AA964FC2-552C-495A-805B-AD0993CE9EBD}" uniqueName="X1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="267" xr6:uid="{3CC2ACDF-73D8-4409-9FC5-3D3768120C27}" r="G25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{EDEF3331-5336-43A5-8BC0-8EB83E18F736}" uniqueName="X2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="268" xr6:uid="{852416FB-3885-4DA6-B3D5-AACD44584327}" r="H25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0568ACD4-7DF9-4AD2-AD28-8F77A1706731}" uniqueName="X3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="269" xr6:uid="{E519007A-2EC1-43D0-B265-84178427F42C}" r="I25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{00BDA562-FEC4-4B86-9673-57F6719E2CCB}" uniqueName="X4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="270" xr6:uid="{31BD7FDE-E999-4AA6-8796-7AE2C20DFD68}" r="J25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{347F9B84-0BAE-451E-9D95-D706E6AF958F}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="271" xr6:uid="{F198AEE2-18A1-495D-A382-F683736B1AEA}" r="K25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0F6EB01B-733F-4042-9FB5-E62BB879286A}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="272" xr6:uid="{75628061-72C0-4387-9234-6DD502B7CC79}" r="L25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{14FBEEBA-C06A-4D4D-9E99-0107BD1B1AB0}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="273" xr6:uid="{5F9B2BEE-F1F5-4CF3-9EFF-D9894B216CFA}" r="M25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{2D383C6C-93BA-4615-A760-005986331905}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="274" xr6:uid="{DBFD009E-2653-454A-9B18-0AD4E1932B04}" r="N25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{88402B9E-DC9C-4027-B0C1-B332BAAE955E}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="275" xr6:uid="{E45C6379-DA67-432D-BE39-F38DB9E14C58}" r="O25" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A1F633C0-0AE2-41CE-BFF3-5939D74DF534}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="276" xr6:uid="{D7504536-C4C4-4723-AF19-C856C81E17D0}" r="F26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DA5251E7-02BD-4575-8100-0CDEBFBB2EC8}" uniqueName="Y1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="277" xr6:uid="{58E7C60B-62ED-44FA-9E95-64B486695817}" r="G26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4AEA0501-8528-4A32-B261-848E974B4990}" uniqueName="Y2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="278" xr6:uid="{3A9E3753-57C7-4A7E-8526-50F45EA3D242}" r="H26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{FC1321EA-C82D-4615-A7BF-14C115C7CC1B}" uniqueName="Y3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="279" xr6:uid="{6E376417-074B-4440-897F-F1A530EC08D7}" r="I26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{ED7BEB9C-8B5E-4A74-BF8B-9F8A02190681}" uniqueName="Y4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="280" xr6:uid="{CCB19C19-67FE-4F1F-8C94-47E33A03574D}" r="J26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{41A8ED8C-6AD9-407C-B8ED-B57BBF216893}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="281" xr6:uid="{CAF3A054-AC5D-4241-9506-687560B4687B}" r="K26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{29744A1C-4BC1-422A-ABAA-81B28D265893}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="282" xr6:uid="{DA7292C5-C0D8-4DFB-AEAB-9884D498792C}" r="L26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{F9674532-4DA3-4E8C-B72B-7048461822D4}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="283" xr6:uid="{731CD66A-76BF-47E6-B2A4-E2CB8E75B649}" r="M26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{D8839EF8-B969-421D-A663-9D39A2AD3975}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="284" xr6:uid="{9AE1306D-05DB-4C48-A9B0-E9E2E5F4341E}" r="N26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{33173B26-2DDE-44D6-BD7E-81E57691FBE5}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="285" xr6:uid="{D531F284-6567-403B-9E63-08CF9F86727D}" r="O26" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7F5E9C31-9535-4435-931D-5BD015F9048E}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/attack/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="286" xr6:uid="{90BAFEC8-EBE2-4131-9BE7-2B99117258D9}" r="D27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0E3B27EB-EBA3-40B8-9674-EC8BC6CD0820}" uniqueName="animationSpeed">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/animationSpeed" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="287" xr6:uid="{C0ABA2FF-5CF9-4333-8114-9C2F912D92F2}" r="F27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8928EBDE-3934-4B29-AAAB-2031CE012357}" uniqueName="X1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="288" xr6:uid="{11368E72-4258-4057-98AD-C08AF96428C9}" r="G27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{6323000C-E2A9-4170-8BB1-F465F39FB003}" uniqueName="X2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="289" xr6:uid="{5FD78BD4-7A31-4ED6-8D6D-485B1E472595}" r="H27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{3AC990F9-742E-4CF8-80AE-4EE8973465B6}" uniqueName="X3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="290" xr6:uid="{EFCCB20B-73D5-4193-9245-492C17786B4B}" r="I27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{C5E87707-CCBE-42F6-9718-B426A7DEBD5F}" uniqueName="X4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="291" xr6:uid="{549ED7FE-4F38-413F-B3C7-ACE406ACC4BC}" r="J27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{37BC0CDD-A1DA-44AD-8481-4A8C0CDED9E8}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="292" xr6:uid="{F96CE3E8-4854-4A6B-9EB1-3A5C6395160B}" r="K27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DD1FABFB-5867-46AB-8C7F-C41F0353E1E0}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="293" xr6:uid="{03DCFB05-E6D5-4819-A240-F6709D7643EA}" r="L27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0FC53943-7063-4E03-ADD3-7C73B04EECDF}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="294" xr6:uid="{3E283170-B7D7-41B9-AB0C-477C440E43A3}" r="M27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{AF4C8B59-6549-492E-8DAE-A53A4C6F3433}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="295" xr6:uid="{3BE21E2A-127D-4F86-9761-03100AE9813A}" r="N27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{603025BF-249D-49B9-8E73-CA9BAE040548}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="296" xr6:uid="{3A2F50CC-CD9E-4951-98B7-BC5C07EF58C7}" r="O27" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{CD3DD8B0-7B12-4145-A1AD-21F3355EEF93}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="297" xr6:uid="{C522E097-B53A-4E3B-BBC5-4A61EE71DACE}" r="F28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{9EFEE546-E785-4E44-83F9-AF9D1E1B492B}" uniqueName="Y1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="298" xr6:uid="{730AAAAC-218D-42E3-BB25-4B72FA751583}" r="G28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8B66EA11-94A4-45D9-B787-3B6A5209AE57}" uniqueName="Y2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="299" xr6:uid="{C5497A77-4CBB-4960-B73B-A9C78F081344}" r="H28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8CAEA033-3071-4683-81D8-8E1FAC9B5063}" uniqueName="Y3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="300" xr6:uid="{1673761C-B332-461C-B606-C44570CDECEC}" r="I28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{BF54B878-315A-48AF-86CE-BE1A22190FCE}" uniqueName="Y4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="301" xr6:uid="{2EE9FBE7-7C2F-4E73-A905-35A921EC0F0E}" r="J28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{D8536C17-407D-4869-9E4B-C80478037C95}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="302" xr6:uid="{4710DEC1-8D17-43E8-AAD0-34FD6F7314F6}" r="K28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{BE3031E4-7A14-4D20-BD1B-9CAA0D1A8DD1}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="303" xr6:uid="{73D1AD5B-7E23-4D7D-B91D-61F498C2853D}" r="L28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7DFDA654-6A5E-48AA-A627-91AADADBDB00}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="304" xr6:uid="{1415BF8B-7F67-4ABE-9C3E-89415C970C70}" r="M28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{11B78210-3020-44ED-AE4C-F777B8F55398}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="305" xr6:uid="{394ABCE7-E1FD-450B-B1E9-84B8D795849F}" r="N28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0DA11EE8-54B0-4CDA-BD6A-EBF1E3893970}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="306" xr6:uid="{19412498-55BD-4B7B-91D6-6BB99288A031}" r="O28" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7DFFD76A-C4EC-407A-9449-6316106B6B24}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/defend/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="307" xr6:uid="{410F202B-30EA-49DC-84D5-477B6F82328E}" r="D29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{5271B3EE-C6C1-4FAE-8404-9028C1C129BA}" uniqueName="animationSpeed">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/animationSpeed" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="308" xr6:uid="{52F55938-FADA-428D-96C2-AF0D23F3FDED}" r="F29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{482C1368-038E-491E-B240-3EC6AFADEAF8}" uniqueName="X1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="309" xr6:uid="{43216B5F-4D05-42CA-A5F4-1404F8309436}" r="G29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{93C93FEC-9B6F-46D6-AB0A-03257CF463AD}" uniqueName="X2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="310" xr6:uid="{9052AC91-1B10-4B7F-98AF-BF63EA90F05D}" r="H29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{2E36C4AA-11E3-45A3-A98D-25DB303E1636}" uniqueName="X3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="311" xr6:uid="{D83F75AF-C446-4508-94D2-4A4AC80933AB}" r="I29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7A8437C4-BE3D-4FC6-9A60-163233BDF82B}" uniqueName="X4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="312" xr6:uid="{3D8F612B-4391-4E9F-8BA0-293BE88CF33B}" r="J29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4B6F38AA-CE9B-46FA-B3F6-A2ABC4D6F391}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="313" xr6:uid="{28E7F8F6-4473-44CA-BA5C-D982A5B3E731}" r="K29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7F5BE9AF-2EB4-45F8-B110-10DAC9EB45AE}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="314" xr6:uid="{AC0F8A3A-47CA-4C3E-9DD4-672034EE31EF}" r="L29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{82EF879E-0E55-4AED-8787-FEEDFC6BE1E7}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="315" xr6:uid="{F9B8B15A-628A-4394-91D8-F66CC00C6717}" r="M29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{2F785566-2A02-4972-AF5F-60F5A44FB0FA}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="316" xr6:uid="{57253D2F-50CA-4340-8913-A10D49B33717}" r="N29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{CD7EBC1A-CDDF-4DEF-93DC-56B20DB60069}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="317" xr6:uid="{EF880459-46BD-43E4-9DD0-182695BC55B0}" r="O29" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A1D49B5B-355D-45A1-BCCF-D7DD0D434E8F}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="318" xr6:uid="{86546CF1-26AD-478A-97EB-13B9911310C7}" r="F30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{AFAB0253-69F4-4C05-9EFA-5CCABFBFAE8C}" uniqueName="Y1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="319" xr6:uid="{516D57A5-35A1-409D-9026-520DC879249B}" r="G30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{205D2762-8AD4-42CA-96A2-31B537726E89}" uniqueName="Y2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="320" xr6:uid="{54FA7656-FF55-4F19-BDDA-E8CF98574829}" r="H30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{86C1B7E0-9FF9-4460-AC6A-4F80CFD9EB9E}" uniqueName="Y3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="321" xr6:uid="{439C2C27-DD52-4129-9A08-AFF9D39D352F}" r="I30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{B7DEBABA-003A-47F1-A66A-3A834357E5D0}" uniqueName="Y4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="322" xr6:uid="{ED933759-EE60-41BA-899C-6C8DB0069F78}" r="J30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{6E675471-32BD-4882-86A3-45356A7201B2}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="323" xr6:uid="{E03F4205-F18A-49FB-AD21-BA10A6E8BCC4}" r="K30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{909C1916-08CC-40F3-BF8D-C5EDAEF86DDB}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="324" xr6:uid="{9BCF6ECD-8E9F-46C6-8ED2-22E6C5353487}" r="L30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{48086279-F47D-4BA7-8589-48F4E6A3DC32}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="325" xr6:uid="{A8CA7541-54B7-4B73-B68D-7CCA92DF46D4}" r="M30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{824F603A-172C-4160-AD25-A06D55154A1B}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="326" xr6:uid="{3B9919F7-FDD2-475E-8409-C09EBE4E246A}" r="N30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{B44C519B-E9B2-4773-AF82-B8C6164DA655}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="327" xr6:uid="{5067F0FE-39E1-4585-A023-005578A235A1}" r="O30" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{70EA3D53-75B7-4BEC-8927-B95875FB8263}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/damage/Y_axes/Y10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="328" xr6:uid="{C153177C-3A69-460B-AAD8-614786EA914E}" r="D31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{A317B645-3F1E-4F83-91CC-2601E3B7D9DF}" uniqueName="animationSpeed">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/animationSpeed" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="329" xr6:uid="{789581C2-4C18-4ED6-A156-7FEB6FE6164A}" r="F31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{91880CB9-7A5A-4975-A4EF-6F04637F7EFD}" uniqueName="X1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="330" xr6:uid="{BF34A303-5BA5-4318-B7BD-9D9EDDEF2767}" r="G31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{4C7A14E3-ADF5-4F99-AFD3-1124DE0042EC}" uniqueName="X2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="331" xr6:uid="{741A8102-5C17-4EAF-9D4F-4E2B05752B16}" r="H31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DEEEA157-E278-4EB1-8E57-BD1CDFBCF8C0}" uniqueName="X3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="332" xr6:uid="{26BC1584-AAB3-4C14-BBC8-8D3B9C36BD10}" r="I31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{0B7CAAF8-4176-47AE-8314-2FA83A3B2A1D}" uniqueName="X4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="333" xr6:uid="{342D13B2-94E6-4292-80F2-5793079A63DF}" r="J31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8B9BE7DA-8114-4FED-8137-C01292E0E6F3}" uniqueName="X5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="334" xr6:uid="{B3510ACE-FA1E-40A6-91C1-7328F657F8C7}" r="K31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{7A511F03-224B-41C0-A1DF-DA855B0B657C}" uniqueName="X6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="335" xr6:uid="{C78A02E9-D4B3-4C5F-8ED2-79DA9DADF637}" r="L31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{042FD1FF-340B-412D-9EC9-CC75892D1D98}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="336" xr6:uid="{DB110E5B-10A1-48F1-99B6-F5B5D83832D7}" r="M31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{E08CA779-2F0E-46B4-AABF-A9D942DF3774}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="337" xr6:uid="{B750749A-8C8E-4251-83B7-E71AB4A725F9}" r="N31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{9BAF118F-771C-40CD-8802-3785EB27AB07}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="338" xr6:uid="{75ADF765-DDA7-420D-9D2C-09DC2FCB98C2}" r="O31" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{5BE9F1DB-DD8E-43D2-A040-55C9EDCD4811}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="339" xr6:uid="{F58DC71F-F3AB-42F7-9D8A-76691FC9AD42}" r="F32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{BF72B03B-DDB3-499C-9F52-A7AC91F4B4FE}" uniqueName="Y1">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y1" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="340" xr6:uid="{54C2EEB1-637B-4989-A6C3-35182FF1EEC8}" r="G32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{90E3B395-58F1-458A-8A9E-E44DC20307C4}" uniqueName="Y2">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y2" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="341" xr6:uid="{B40A2D88-8AB6-423B-80BD-0F13100E7AF7}" r="H32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{89B5BD76-CA05-4A49-A83C-310790CCB027}" uniqueName="Y3">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y3" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="342" xr6:uid="{FAA23ED2-B8B3-463A-B9AA-ABA9E6C5A728}" r="I32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{FB229CD9-052B-457A-A4CB-4DC09CCFA7C4}" uniqueName="Y4">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y4" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="343" xr6:uid="{E5B03CD0-043B-4FBF-88BD-E163DBA23292}" r="J32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{14DABB3E-2013-410D-9C5B-93CE4B8D5757}" uniqueName="Y5">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y5" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="344" xr6:uid="{560DBDDA-E1A2-4102-B112-EA51246C7016}" r="K32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{27565EA8-9A55-468F-B396-06B253588B8F}" uniqueName="Y6">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="345" xr6:uid="{A47E7D00-C60F-4BD9-A3AD-08801F13E781}" r="L32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{8BA4DBDF-62BE-4A9E-A2AB-3A1A2C82B221}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="346" xr6:uid="{311446FA-5C24-456D-81DB-6407359E6B23}" r="M32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{967AB312-A4F1-492D-B2AB-477A25BB10D1}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="347" xr6:uid="{F702120E-9D9E-4ABE-932B-5477790733BF}" r="N32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{D805442D-C95C-499D-94A3-EA5D4A49431D}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="348" xr6:uid="{247F0F41-7A2D-48B1-99B4-D3B8846FD723}" r="O32" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{E8828886-A11F-48C4-81D3-641C399A7FF1}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/monsters/omnibeast/death/Y_axes/Y10" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -4383,26 +3710,6 @@
       <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/X_axes/X6" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="83" xr6:uid="{E8B68B26-620C-4D1D-8200-7DFE953C7E15}" r="L3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DC22BB0C-517E-4CE6-9861-35D7F9689149}" uniqueName="X7">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/X_axes/X7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="84" xr6:uid="{056ECEBE-FE63-44A8-A40F-20F177959418}" r="M3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{288FFC88-C787-41F4-A871-47F903769A00}" uniqueName="X8">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/X_axes/X8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="85" xr6:uid="{D310B75D-6EB0-4B3E-B214-DCCA0D9F4286}" r="N3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DC198811-0557-4492-9247-A65835B411E4}" uniqueName="X9">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/X_axes/X9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="86" xr6:uid="{EE29C9A5-D398-4078-B7FB-13A8063BA23B}" r="O3" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{07B75196-A58D-4DD2-A0EA-17EC6E94F9B9}" uniqueName="X10">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/X_axes/X10" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
   <singleXmlCell id="87" xr6:uid="{F5418EBC-FC2F-49AF-B0D3-8A4B420327BE}" r="F4" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{A4928201-4244-4E47-B46D-A518AF666A22}" uniqueName="Y1">
       <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y1" xmlDataType="string"/>
@@ -4431,26 +3738,6 @@
   <singleXmlCell id="92" xr6:uid="{F125B68A-8372-41CD-920F-E8AC2934FBF3}" r="K4" connectionId="2">
     <xmlCellPr id="1" xr6:uid="{099B79BB-900B-4624-9C3B-5B7CDDD9649F}" uniqueName="Y6">
       <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y6" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="93" xr6:uid="{2D26D0A1-1B76-4D1D-A216-3E0D5C512C34}" r="L4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{DFB78D22-B3CF-402B-ADF6-7504CF245DA2}" uniqueName="Y7">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y7" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="94" xr6:uid="{392B2CCF-4844-444A-A52F-E7A8EF2369E1}" r="M4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{E2697C27-8CC3-4609-B16C-72A7A0298DB5}" uniqueName="Y8">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y8" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="95" xr6:uid="{F5F9FAF8-C6DC-47F6-84BB-C716F744E1DD}" r="N4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{3D3486A1-3535-49C4-8848-5F22AA25EBF4}" uniqueName="Y9">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y9" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="96" xr6:uid="{E10730C3-0AE0-4D34-8532-F22444F526CC}" r="O4" connectionId="2">
-    <xmlCellPr id="1" xr6:uid="{44DD8261-7662-4F8B-A141-CC6BBBA0005F}" uniqueName="Y10">
-      <xmlPr mapId="1" xpath="/characters/heroes/heroine/idle/Y_axes/Y10" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
   <singleXmlCell id="349" xr6:uid="{E74D5880-25E2-4887-A791-4DF67388C46D}" r="D5" connectionId="2">
@@ -5145,7 +4432,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,25 +4481,25 @@
         <v>20</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -5220,13 +4507,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -5234,10 +4521,18 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="38">
+        <v>59</v>
+      </c>
+      <c r="E5" s="38">
+        <v>68</v>
+      </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
@@ -5324,32 +4619,33 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:P52"/>
+  <dimension ref="B2:BI52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31:D32"/>
+      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="5.28515625" customWidth="1"/>
+    <col min="6" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="4.140625" customWidth="1"/>
+    <col min="25" max="61" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:61" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>13</v>
@@ -5387,16 +4683,151 @@
       <c r="P2" s="55">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="Q2" s="55">
+        <v>12</v>
+      </c>
+      <c r="R2" s="55">
+        <v>13</v>
+      </c>
+      <c r="S2" s="55">
+        <v>14</v>
+      </c>
+      <c r="T2" s="55">
+        <v>15</v>
+      </c>
+      <c r="U2" s="55">
+        <v>16</v>
+      </c>
+      <c r="V2" s="56">
+        <v>17</v>
+      </c>
+      <c r="W2" s="55">
+        <v>18</v>
+      </c>
+      <c r="X2" s="57">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="55">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="55">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="55">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="55">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="56">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="55">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="57">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="55">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="55">
+        <v>28</v>
+      </c>
+      <c r="AH2" s="55">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="55">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="56">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="55">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="57">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="55">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="55">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="55">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="55">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="56">
+        <v>38</v>
+      </c>
+      <c r="AR2" s="55">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="57">
+        <v>40</v>
+      </c>
+      <c r="AT2" s="55">
+        <v>41</v>
+      </c>
+      <c r="AU2" s="55">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="55">
+        <v>43</v>
+      </c>
+      <c r="AW2" s="55">
+        <v>44</v>
+      </c>
+      <c r="AX2" s="56">
+        <v>45</v>
+      </c>
+      <c r="AY2" s="55">
+        <v>46</v>
+      </c>
+      <c r="AZ2" s="57">
+        <v>47</v>
+      </c>
+      <c r="BA2" s="55">
+        <v>48</v>
+      </c>
+      <c r="BB2" s="55">
+        <v>49</v>
+      </c>
+      <c r="BC2" s="55">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="55">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="56">
+        <v>52</v>
+      </c>
+      <c r="BF2" s="55">
+        <v>53</v>
+      </c>
+      <c r="BG2" s="57">
+        <v>54</v>
+      </c>
+      <c r="BH2" s="55">
+        <v>55</v>
+      </c>
+      <c r="BI2" s="55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="114" t="s">
-        <v>27</v>
+      <c r="D3" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -5421,10 +4852,10 @@
       <c r="O3" s="69"/>
       <c r="P3" s="60"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="115"/>
+    <row r="4" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
@@ -5448,13 +4879,13 @@
       <c r="O4" s="73"/>
       <c r="P4" s="61"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="98"/>
-      <c r="C5" s="102" t="s">
+    <row r="5" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B5" s="117"/>
+      <c r="C5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>27</v>
+      <c r="D5" s="128" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -5479,10 +4910,10 @@
       <c r="O5" s="77"/>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="98"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="113"/>
+    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B6" s="117"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
@@ -5506,273 +4937,261 @@
       <c r="O6" s="81"/>
       <c r="P6" s="63"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
-      <c r="C7" s="101" t="s">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B7" s="117"/>
+      <c r="C7" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>173</v>
+      <c r="D7" s="126" t="s">
+        <v>171</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="I7" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="K7" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="120" t="s">
+      <c r="L7" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="M7" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="123" t="s">
+      <c r="N7" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="64">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="115"/>
+      <c r="O7" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B8" s="117"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="I8" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="J8" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="K8" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="M8" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="72" t="s">
+      <c r="N8" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="72" t="s">
-        <v>110</v>
-      </c>
       <c r="O8" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="61">
-        <v>5353</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="61"/>
+    </row>
+    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B9" s="117"/>
+      <c r="C9" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="112" t="s">
-        <v>174</v>
+      <c r="D9" s="128" t="s">
+        <v>172</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="76" t="s">
+      <c r="J9" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="76" t="s">
+      <c r="L9" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="76" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="62">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="113"/>
+        <v>112</v>
+      </c>
+      <c r="P9" s="62"/>
+    </row>
+    <row r="10" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B10" s="117"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="I10" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="J10" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="K10" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="80" t="s">
+      <c r="L10" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="M10" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="N10" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="83" t="s">
+      <c r="O10" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="P10" s="63">
-        <v>7070</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="101" t="s">
+      <c r="P10" s="63"/>
+    </row>
+    <row r="11" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B11" s="117"/>
+      <c r="C11" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>175</v>
+      <c r="D11" s="126" t="s">
+        <v>173</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="120" t="s">
+      <c r="I11" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="K11" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="128" t="s">
+      <c r="M11" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="64">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="126"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="118"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="131" t="s">
+      <c r="F12" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="J12" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="132" t="s">
+      <c r="K12" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="134" t="s">
+      <c r="L12" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="65">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B13" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="117" t="s">
-        <v>28</v>
+      <c r="D13" s="133" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
@@ -5801,10 +5220,10 @@
       <c r="O13" s="86"/>
       <c r="P13" s="66"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="113"/>
+    <row r="14" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B14" s="117"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="17" t="s">
         <v>7</v>
       </c>
@@ -5832,828 +5251,996 @@
       <c r="O14" s="81"/>
       <c r="P14" s="63"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="101" t="s">
+    <row r="15" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B15" s="117"/>
+      <c r="C15" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="125" t="s">
-        <v>176</v>
+      <c r="D15" s="126" t="s">
+        <v>174</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="121" t="s">
+      <c r="F15" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="120" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="64">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="115"/>
+      <c r="N15" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="64"/>
+    </row>
+    <row r="16" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M16" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="61">
-        <v>159</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="117"/>
+      <c r="C17" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="112" t="s">
-        <v>177</v>
+      <c r="D17" s="128" t="s">
+        <v>175</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="135" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>132</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K17" s="78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L17" s="76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M17" s="77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N17" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" s="62">
-        <v>987</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O17" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="113"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L18" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M18" s="81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N18" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O18" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="63">
-        <v>123</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="125" t="s">
-        <v>178</v>
+      <c r="D19" s="126" t="s">
+        <v>176</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="I19" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="120" t="s">
+      <c r="J19" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="121" t="s">
+      <c r="K19" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="120" t="s">
+      <c r="L19" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="K19" s="128" t="s">
+      <c r="M19" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="120" t="s">
+      <c r="N19" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="121" t="s">
+      <c r="O19" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="P19" s="64">
-        <v>3333</v>
-      </c>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="72" t="s">
+      <c r="L20" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="N20" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="73" t="s">
+      <c r="O20" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="N20" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="61">
-        <v>5</v>
-      </c>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="117"/>
+      <c r="C21" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="112" t="s">
-        <v>179</v>
+      <c r="D21" s="128" t="s">
+        <v>177</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="135" t="s">
+      <c r="J21" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="135" t="s">
+      <c r="K21" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="L21" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="78" t="s">
+      <c r="M21" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="137" t="s">
+      <c r="N21" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="135" t="s">
+      <c r="O21" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="N21" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="O21" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="P21" s="62">
-        <v>1</v>
-      </c>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="136"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="140" t="s">
+      <c r="F22" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="G22" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="140" t="s">
+      <c r="H22" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="141" t="s">
+      <c r="I22" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="L22" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="N22" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="O22" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="P22" s="67">
-        <v>6</v>
-      </c>
+      <c r="K22" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="67"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="100" t="s">
+      <c r="B23" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="114" t="s">
-        <v>180</v>
+      <c r="D23" s="131" t="s">
+        <v>178</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H23" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I23" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M23" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O23" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" s="60">
-        <v>39</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K24" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M24" s="75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O24" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="61">
-        <v>22</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="102" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="112" t="s">
-        <v>181</v>
+      <c r="D25" s="128" t="s">
+        <v>179</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K25" s="78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L25" s="76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M25" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N25" s="76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O25" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="62">
-        <v>77</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="113"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="I26" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="81" t="s">
-        <v>77</v>
-      </c>
       <c r="J26" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K26" s="82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L26" s="80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N26" s="80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O26" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="63">
-        <v>700</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="101" t="s">
+      <c r="B27" s="117"/>
+      <c r="C27" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="125" t="s">
-        <v>182</v>
+      <c r="D27" s="126" t="s">
+        <v>180</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="K27" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="M27" s="123" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="O27" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27" s="64">
-        <v>1</v>
-      </c>
+      <c r="F27" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="98"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="115"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H28" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I28" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="K28" s="101" t="s">
+        <v>162</v>
       </c>
       <c r="L28" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M28" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N28" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O28" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="P28" s="61">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P28" s="61"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="102" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="112" t="s">
-        <v>183</v>
+      <c r="D29" s="128" t="s">
+        <v>181</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I29" s="77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29" s="78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L29" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M29" s="79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N29" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O29" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="P29" s="62">
-        <v>741</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I30" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L30" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M30" s="83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N30" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O30" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="P30" s="63">
-        <v>756</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="101" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="125" t="s">
-        <v>184</v>
+      <c r="D31" s="126" t="s">
+        <v>182</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="I31" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="L31" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="M31" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="O31" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="P31" s="64">
-        <v>851</v>
-      </c>
+      <c r="F31" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="126"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="130" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="131" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="L32" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="M32" s="134" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="O32" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="P32" s="65">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
-      <c r="C33" s="105" t="s">
+      <c r="F32" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="65"/>
+    </row>
+    <row r="33" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B33" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="139" t="s">
+        <v>190</v>
+      </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="66"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="110"/>
+      <c r="F33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
+        <v>59</v>
+      </c>
+      <c r="I33" s="13">
+        <v>59</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>59</v>
+      </c>
+      <c r="M33" s="32">
+        <v>118</v>
+      </c>
+      <c r="N33" s="13">
+        <v>177</v>
+      </c>
+      <c r="O33" s="32">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>118</v>
+      </c>
+      <c r="R33" s="13">
+        <v>177</v>
+      </c>
+      <c r="S33" s="32">
+        <v>118</v>
+      </c>
+      <c r="T33" s="13">
+        <v>177</v>
+      </c>
+      <c r="U33" s="32">
+        <v>118</v>
+      </c>
+      <c r="V33" s="13">
+        <v>177</v>
+      </c>
+      <c r="W33" s="32">
+        <v>118</v>
+      </c>
+      <c r="X33" s="13">
+        <v>177</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>118</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>177</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>59</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>118</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>177</v>
+      </c>
+      <c r="AF33" s="32">
+        <v>236</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>236</v>
+      </c>
+      <c r="AH33" s="32">
+        <v>999</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>999</v>
+      </c>
+      <c r="AJ33" s="32">
+        <v>999</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>999</v>
+      </c>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="32"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="32"/>
+    </row>
+    <row r="34" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B34" s="117"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="63"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="101" t="s">
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0</v>
+      </c>
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="31">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="31">
+        <v>68</v>
+      </c>
+      <c r="P34" s="47">
+        <v>68</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>68</v>
+      </c>
+      <c r="R34" s="22">
+        <v>68</v>
+      </c>
+      <c r="S34" s="31">
+        <v>68</v>
+      </c>
+      <c r="T34" s="22">
+        <v>68</v>
+      </c>
+      <c r="U34" s="31">
+        <v>68</v>
+      </c>
+      <c r="V34" s="22">
+        <v>68</v>
+      </c>
+      <c r="W34" s="31">
+        <v>68</v>
+      </c>
+      <c r="X34" s="22">
+        <v>68</v>
+      </c>
+      <c r="Y34" s="31">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>68</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>136</v>
+      </c>
+      <c r="AB34" s="31">
+        <v>136</v>
+      </c>
+      <c r="AC34" s="18">
+        <v>136</v>
+      </c>
+      <c r="AD34" s="31">
+        <v>136</v>
+      </c>
+      <c r="AE34" s="47">
+        <v>136</v>
+      </c>
+      <c r="AF34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH34" s="31">
+        <v>999</v>
+      </c>
+      <c r="AI34" s="22">
+        <v>999</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>999</v>
+      </c>
+      <c r="AK34" s="18">
+        <v>999</v>
+      </c>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="22"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="31"/>
+    </row>
+    <row r="35" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B35" s="117"/>
+      <c r="C35" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="107"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
@@ -6669,10 +6256,10 @@
       <c r="O35" s="10"/>
       <c r="P35" s="64"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="111"/>
+    <row r="36" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B36" s="117"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="15" t="s">
         <v>7</v>
       </c>
@@ -6688,12 +6275,12 @@
       <c r="O36" s="16"/>
       <c r="P36" s="61"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="98"/>
-      <c r="C37" s="102" t="s">
+    <row r="37" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B37" s="117"/>
+      <c r="C37" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="109"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="7" t="s">
         <v>6</v>
       </c>
@@ -6709,10 +6296,10 @@
       <c r="O37" s="14"/>
       <c r="P37" s="62"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="98"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="110"/>
+    <row r="38" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B38" s="117"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="23" t="s">
         <v>7</v>
       </c>
@@ -6728,12 +6315,12 @@
       <c r="O38" s="22"/>
       <c r="P38" s="63"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="101" t="s">
+    <row r="39" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B39" s="117"/>
+      <c r="C39" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="136"/>
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
@@ -6749,10 +6336,10 @@
       <c r="O39" s="10"/>
       <c r="P39" s="64"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="98"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="111"/>
+    <row r="40" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B40" s="117"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="15" t="s">
         <v>7</v>
       </c>
@@ -6768,12 +6355,12 @@
       <c r="O40" s="16"/>
       <c r="P40" s="61"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="98"/>
-      <c r="C41" s="102" t="s">
+    <row r="41" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B41" s="117"/>
+      <c r="C41" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="109"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="4" t="s">
         <v>6</v>
       </c>
@@ -6789,10 +6376,10 @@
       <c r="O41" s="14"/>
       <c r="P41" s="62"/>
     </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="116"/>
+    <row r="42" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="118"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="24" t="s">
         <v>7</v>
       </c>
@@ -6808,12 +6395,12 @@
       <c r="O42" s="25"/>
       <c r="P42" s="67"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="97"/>
-      <c r="C43" s="100" t="s">
+    <row r="43" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B43" s="116"/>
+      <c r="C43" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="118"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="3" t="s">
         <v>6</v>
       </c>
@@ -6829,10 +6416,10 @@
       <c r="O43" s="8"/>
       <c r="P43" s="60"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="98"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="111"/>
+    <row r="44" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B44" s="117"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="15" t="s">
         <v>7</v>
       </c>
@@ -6848,12 +6435,12 @@
       <c r="O44" s="16"/>
       <c r="P44" s="61"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="98"/>
-      <c r="C45" s="102" t="s">
+    <row r="45" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B45" s="117"/>
+      <c r="C45" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="109"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="4" t="s">
         <v>6</v>
       </c>
@@ -6869,10 +6456,10 @@
       <c r="O45" s="9"/>
       <c r="P45" s="62"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="98"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="110"/>
+    <row r="46" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B46" s="117"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="17" t="s">
         <v>7</v>
       </c>
@@ -6888,12 +6475,12 @@
       <c r="O46" s="18"/>
       <c r="P46" s="63"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="98"/>
-      <c r="C47" s="101" t="s">
+    <row r="47" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B47" s="117"/>
+      <c r="C47" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="107"/>
+      <c r="D47" s="136"/>
       <c r="E47" s="5" t="s">
         <v>6</v>
       </c>
@@ -6909,10 +6496,10 @@
       <c r="O47" s="10"/>
       <c r="P47" s="64"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="111"/>
+    <row r="48" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B48" s="117"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="15" t="s">
         <v>7</v>
       </c>
@@ -6929,11 +6516,11 @@
       <c r="P48" s="61"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="98"/>
-      <c r="C49" s="102" t="s">
+      <c r="B49" s="117"/>
+      <c r="C49" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="109"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="4" t="s">
         <v>6</v>
       </c>
@@ -6950,9 +6537,9 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="98"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="110"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="135"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -6969,11 +6556,11 @@
       <c r="P50" s="63"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="98"/>
-      <c r="C51" s="101" t="s">
+      <c r="B51" s="117"/>
+      <c r="C51" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="107"/>
+      <c r="D51" s="136"/>
       <c r="E51" s="5" t="s">
         <v>6</v>
       </c>
@@ -6990,9 +6577,9 @@
       <c r="P51" s="64"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="99"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="108"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="19" t="s">
         <v>7</v>
       </c>
@@ -7076,10 +6663,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:P52"/>
+  <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7098,7 +6685,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>13</v>
@@ -7138,14 +6725,14 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="114" t="s">
-        <v>29</v>
+      <c r="D3" s="131" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -7165,9 +6752,7 @@
       <c r="J3" s="68">
         <v>216</v>
       </c>
-      <c r="K3" s="70">
-        <v>270</v>
-      </c>
+      <c r="K3" s="70"/>
       <c r="L3" s="68"/>
       <c r="M3" s="71"/>
       <c r="N3" s="68"/>
@@ -7175,9 +6760,9 @@
       <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
@@ -7196,9 +6781,7 @@
       <c r="J4" s="72">
         <v>0</v>
       </c>
-      <c r="K4" s="74">
-        <v>0</v>
-      </c>
+      <c r="K4" s="74"/>
       <c r="L4" s="72"/>
       <c r="M4" s="75"/>
       <c r="N4" s="72"/>
@@ -7206,357 +6789,357 @@
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="98"/>
-      <c r="C5" s="102" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>185</v>
+      <c r="D5" s="128" t="s">
+        <v>183</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="I5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="J5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="K5" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="L5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="M5" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="N5" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="O5" s="77" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>62</v>
       </c>
       <c r="P5" s="62">
         <v>911</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="98"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="I6" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="J6" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="L6" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="M6" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="N6" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="81" t="s">
         <v>69</v>
-      </c>
-      <c r="M6" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="81" t="s">
-        <v>71</v>
       </c>
       <c r="P6" s="63">
         <v>811</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
-      <c r="C7" s="101" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>186</v>
+      <c r="D7" s="126" t="s">
+        <v>184</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="I7" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="J7" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="K7" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="120" t="s">
+      <c r="L7" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="N7" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="123" t="s">
+      <c r="O7" s="98" t="s">
         <v>78</v>
-      </c>
-      <c r="N7" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="121" t="s">
-        <v>80</v>
       </c>
       <c r="P7" s="64">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="115"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>83</v>
-      </c>
       <c r="I8" s="73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J8" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>83</v>
-      </c>
       <c r="M8" s="75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O8" s="73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P8" s="61">
         <v>321</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="112" t="s">
-        <v>182</v>
+      <c r="D9" s="128" t="s">
+        <v>180</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L9" s="76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N9" s="76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O9" s="77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="62">
         <v>951</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L10" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N10" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O10" s="81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P10" s="63">
         <v>753</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="101" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>180</v>
+      <c r="D11" s="126" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="121" t="s">
-        <v>89</v>
+      <c r="F11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="98" t="s">
+        <v>87</v>
       </c>
       <c r="P11" s="64">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="132" t="s">
-        <v>90</v>
+      <c r="F12" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="107" t="s">
+        <v>88</v>
       </c>
       <c r="P12" s="65">
         <v>659</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
@@ -7573,9 +7156,9 @@
       <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="17" t="s">
         <v>7</v>
       </c>
@@ -7592,11 +7175,11 @@
       <c r="P14" s="63"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="101" t="s">
+      <c r="B15" s="117"/>
+      <c r="C15" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
@@ -7613,9 +7196,9 @@
       <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="137"/>
       <c r="E16" s="15" t="s">
         <v>7</v>
       </c>
@@ -7632,11 +7215,11 @@
       <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="117"/>
+      <c r="C17" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
@@ -7653,9 +7236,9 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
@@ -7672,11 +7255,11 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="136"/>
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
@@ -7693,9 +7276,9 @@
       <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="111"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="15" t="s">
         <v>7</v>
       </c>
@@ -7712,11 +7295,11 @@
       <c r="P20" s="61"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="117"/>
+      <c r="C21" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="109"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
@@ -7733,9 +7316,9 @@
       <c r="P21" s="62"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="116"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="24" t="s">
         <v>7</v>
       </c>
@@ -7752,13 +7335,13 @@
       <c r="P22" s="67"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
@@ -7775,9 +7358,9 @@
       <c r="P23" s="60"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="111"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="137"/>
       <c r="E24" s="15" t="s">
         <v>7</v>
       </c>
@@ -7794,11 +7377,11 @@
       <c r="P24" s="61"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="102" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
@@ -7815,9 +7398,9 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="110"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -7834,11 +7417,11 @@
       <c r="P26" s="63"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="101" t="s">
+      <c r="B27" s="117"/>
+      <c r="C27" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="136"/>
       <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
@@ -7855,9 +7438,9 @@
       <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="98"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="111"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="137"/>
       <c r="E28" s="15" t="s">
         <v>7</v>
       </c>
@@ -7874,11 +7457,11 @@
       <c r="P28" s="61"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="102" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="109"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
@@ -7895,9 +7478,9 @@
       <c r="P29" s="62"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
@@ -7914,11 +7497,11 @@
       <c r="P30" s="63"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="101" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="107"/>
+      <c r="D31" s="136"/>
       <c r="E31" s="5" t="s">
         <v>6</v>
       </c>
@@ -7935,9 +7518,9 @@
       <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="108"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="19" t="s">
         <v>7</v>
       </c>
@@ -7954,13 +7537,13 @@
       <c r="P32" s="65"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
@@ -7977,9 +7560,9 @@
       <c r="P33" s="66"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="110"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="17" t="s">
         <v>7</v>
       </c>
@@ -7996,11 +7579,11 @@
       <c r="P34" s="63"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="101" t="s">
+      <c r="B35" s="117"/>
+      <c r="C35" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="107"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
@@ -8017,9 +7600,9 @@
       <c r="P35" s="64"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="111"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="15" t="s">
         <v>7</v>
       </c>
@@ -8036,11 +7619,11 @@
       <c r="P36" s="61"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="98"/>
-      <c r="C37" s="102" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="109"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="7" t="s">
         <v>6</v>
       </c>
@@ -8057,9 +7640,9 @@
       <c r="P37" s="62"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="98"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="110"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="23" t="s">
         <v>7</v>
       </c>
@@ -8076,11 +7659,11 @@
       <c r="P38" s="63"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="101" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="136"/>
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
@@ -8097,9 +7680,9 @@
       <c r="P39" s="64"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="98"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="111"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="15" t="s">
         <v>7</v>
       </c>
@@ -8116,11 +7699,11 @@
       <c r="P40" s="61"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="98"/>
-      <c r="C41" s="102" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="109"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="4" t="s">
         <v>6</v>
       </c>
@@ -8137,9 +7720,9 @@
       <c r="P41" s="62"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="24" t="s">
         <v>7</v>
       </c>
@@ -8155,45 +7738,10 @@
       <c r="O42" s="25"/>
       <c r="P42" s="67"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="118"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="111"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="109"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="110"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="107"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="111"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="109"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="110"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="107"/>
-    </row>
-    <row r="52" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="108"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="D51:D52"/>
+  <mergeCells count="44">
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
@@ -8249,7 +7797,7 @@
   <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8260,12 +7808,12 @@
     <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B2" s="95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -8273,67 +7821,67 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -8341,7 +7889,7 @@
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
